--- a/videos/Website videos.xlsx
+++ b/videos/Website videos.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="359">
   <si>
     <t>*** = unsure (will need to check w sheet music at home or google)</t>
   </si>
@@ -43,7 +43,7 @@
     <t>Attribution</t>
   </si>
   <si>
-    <t>Allegro – fourth movement from Divertimento in G Major, Hob. XVI:8</t>
+    <t>Allegro: fourth movement from Divertimento in G Major</t>
   </si>
   <si>
     <t>Joseph Haydn</t>
@@ -148,22 +148,25 @@
     <t>https://youtu.be/YhwqWBhNn58</t>
   </si>
   <si>
-    <t>Prelude ***</t>
+    <t>Prelude</t>
   </si>
   <si>
     <t>?</t>
   </si>
   <si>
+    <t>Live,</t>
+  </si>
+  <si>
     <t>https://youtu.be/r-TPzti8bu0</t>
   </si>
   <si>
-    <t>Romance ***</t>
+    <t>Romance</t>
   </si>
   <si>
     <t>https://youtu.be/SG4-XKnGgyk</t>
   </si>
   <si>
-    <t>Sarabanda – third movement from Sonata in D minor</t>
+    <t>Sarabanda: third movement from Sonata in D minor</t>
   </si>
   <si>
     <t>Arcangelo Corelli</t>
@@ -184,10 +187,13 @@
     <t>Piano, Clarinet</t>
   </si>
   <si>
+    <t>Shenanigans,</t>
+  </si>
+  <si>
     <t>https://youtu.be/SzJGqau9K1k</t>
   </si>
   <si>
-    <t>Piano performed by Matthew and Clarinet performed by Allie</t>
+    <t>Piano performed by Matthew and clarinet performed by Allie</t>
   </si>
   <si>
     <t>The Old Cuckoo Clock</t>
@@ -226,7 +232,7 @@
     <t>not actually Mozart</t>
   </si>
   <si>
-    <t>A, Elanor Mayo, Stefan Rogers</t>
+    <t>A, Elanor, Stefan</t>
   </si>
   <si>
     <t>https://youtu.be/t3bUYBgW2y0</t>
@@ -235,7 +241,7 @@
     <t>Clarinet performed by Allie, Stefan, and Elanor</t>
   </si>
   <si>
-    <t>Allegro Assai – third movement from Sonata in G</t>
+    <t>Allegro Assai: third movement from Sonata in G</t>
   </si>
   <si>
     <t>Georg Benda</t>
@@ -250,13 +256,10 @@
     <t>Piano, Euphonium</t>
   </si>
   <si>
-    <t>Outtakes,</t>
-  </si>
-  <si>
     <t>https://youtu.be/flPq0TUIznE</t>
   </si>
   <si>
-    <t>Piano and Euphonium performed by Matthew</t>
+    <t>Piano and euphonium performed by Matthew</t>
   </si>
   <si>
     <t>Dance of the Clown</t>
@@ -574,7 +577,7 @@
     <t>https://youtu.be/aRU4PRUs12U</t>
   </si>
   <si>
-    <t>Rondo Alla Turca – third movement from Sonata No 11 in A major</t>
+    <t>Rondo Alla Turca: third movement from Sonata No 11 in A major</t>
   </si>
   <si>
     <t>Wolfgang Amadeus Mozart</t>
@@ -583,7 +586,7 @@
     <t>https://youtu.be/6m4DXVinJH8</t>
   </si>
   <si>
-    <t>Rondo – second movement from Sonatina in E flat</t>
+    <t>Rondo: second movement from Sonatina in E flat</t>
   </si>
   <si>
     <t>Jan Ladislav Dussek</t>
@@ -637,7 +640,7 @@
     <t>https://youtu.be/ir1_YjOFQHM</t>
   </si>
   <si>
-    <t>Impromptu for Piano – arranged for multitasking</t>
+    <t>Impromptu for Piano: arranged for multitasking</t>
   </si>
   <si>
     <t>https://youtu.be/vRk4CzbTuXo</t>
@@ -676,7 +679,7 @@
     <t>https://youtu.be/VzaNCqYr-_s</t>
   </si>
   <si>
-    <t>Allegrissimo – from Sonata in F minor (organ version)</t>
+    <t>Allegrissimo: from Sonata in F minor (organ version)</t>
   </si>
   <si>
     <t>Domenico Scarlatti</t>
@@ -688,7 +691,7 @@
     <t>https://youtu.be/DCK33MxQR8g</t>
   </si>
   <si>
-    <t>Allegrissimo – from Sonata in F minor</t>
+    <t>Allegrissimo: from Sonata in F minor</t>
   </si>
   <si>
     <t>https://youtu.be/vS0k8xJKB0E</t>
@@ -697,9 +700,6 @@
     <t>The Making Of</t>
   </si>
   <si>
-    <t>Making of,</t>
-  </si>
-  <si>
     <t>https://youtu.be/ZO5zcAb-Y1g</t>
   </si>
   <si>
@@ -802,7 +802,7 @@
     <t>Tay Zonday</t>
   </si>
   <si>
-    <t>https://youtu.be/w5SdT5USrRk **with audio issue</t>
+    <t>https://youtu.be/w5SdT5USrRk</t>
   </si>
   <si>
     <t>Classical, Best of,</t>
@@ -919,7 +919,7 @@
     <t>Piano and GarageBand shenanigans by Matthew, drums by Allie</t>
   </si>
   <si>
-    <t>Adagio Cantabile – second movement from Sonata Pathétique</t>
+    <t>Adagio Cantabile: second movement from Sonata Pathétique</t>
   </si>
   <si>
     <t>https://youtu.be/87Aj0cWja2Y</t>
@@ -1004,6 +1004,90 @@
   </si>
   <si>
     <t>https://youtu.be/3mXRbbPe760</t>
+  </si>
+  <si>
+    <t>Tintin's Shelf Life</t>
+  </si>
+  <si>
+    <t>https://youtu.be/RgjTheDshn8</t>
+  </si>
+  <si>
+    <t>Made by Matthew and Allie</t>
+  </si>
+  <si>
+    <t>The Jungle of Fear</t>
+  </si>
+  <si>
+    <t>M, A, Peter, Fiona</t>
+  </si>
+  <si>
+    <t>https://youtu.be/3DlDTPGcqJo</t>
+  </si>
+  <si>
+    <t>A Law family escapade</t>
+  </si>
+  <si>
+    <t>The Jungle (Spain 2012)</t>
+  </si>
+  <si>
+    <t>M, A, Peter, Fiona, Jonathan, Simon</t>
+  </si>
+  <si>
+    <t>https://youtu.be/I86Xwp9OTlY</t>
+  </si>
+  <si>
+    <t>Karate Kids NYE Concert</t>
+  </si>
+  <si>
+    <t>M, A, Jonathan, Rachel</t>
+  </si>
+  <si>
+    <t>https://youtu.be/rhW6KnSsMQg</t>
+  </si>
+  <si>
+    <t>The Grand Entrance</t>
+  </si>
+  <si>
+    <t>Nannie's birthday</t>
+  </si>
+  <si>
+    <t>https://youtu.be/tBK2iplfs7w</t>
+  </si>
+  <si>
+    <t>https://youtu.be/i8f0oKvUsvM</t>
+  </si>
+  <si>
+    <t>Piano performed by Matthew</t>
+  </si>
+  <si>
+    <t>Let Her Go</t>
+  </si>
+  <si>
+    <t>Mike Rosenberg</t>
+  </si>
+  <si>
+    <t>Jonathan, Simon, Aaron</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MnEy-AhNPcE</t>
+  </si>
+  <si>
+    <t>Drums performed by Jonathan, keyboard and vocals performed by Simon, guitar performed by Aaron</t>
+  </si>
+  <si>
+    <t>https://youtu.be/0pMwwGutQs8</t>
+  </si>
+  <si>
+    <t>House of the Amazing Grace</t>
+  </si>
+  <si>
+    <t>M, Jonathan, Simon</t>
+  </si>
+  <si>
+    <t>https://youtu.be/YbaGSFBRXec</t>
+  </si>
+  <si>
+    <t>Piano performed by Matthew, drums performed by Jonathan, keyboard performed by Simon</t>
   </si>
 </sst>
 </file>
@@ -1016,11 +1100,11 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <u/>
       <color rgb="FF0000FF"/>
@@ -1063,14 +1147,14 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1298,41 +1382,41 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1343,19 +1427,19 @@
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1">
         <v>2007.0</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H3" s="3" t="s">
@@ -1370,22 +1454,22 @@
       <c r="A4" s="1">
         <v>2.0</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>2009.0</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H4" s="3" t="s">
@@ -1400,22 +1484,22 @@
       <c r="A5" s="1">
         <v>3.0</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1">
         <v>2009.0</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H5" s="3" t="s">
@@ -1430,19 +1514,19 @@
       <c r="A6" s="1">
         <v>4.0</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1">
         <v>2009.0</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="3" t="s">
@@ -1460,19 +1544,19 @@
       <c r="B7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1">
         <v>2007.0</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="F7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H7" s="3" t="s">
@@ -1487,19 +1571,19 @@
       <c r="A8" s="1">
         <v>6.0</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1">
         <v>2008.0</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="3" t="s">
@@ -1514,22 +1598,22 @@
       <c r="A9" s="1">
         <v>7.0</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1">
         <v>2009.0</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="2" t="s">
+      <c r="F9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>34</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -1544,19 +1628,19 @@
       <c r="A10" s="1">
         <v>8.0</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="1">
         <v>2008.0</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="3" t="s">
@@ -1571,19 +1655,19 @@
       <c r="A11" s="1">
         <v>9.0</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="D11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="1">
         <v>2008.0</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H11" s="3" t="s">
@@ -1598,22 +1682,22 @@
       <c r="A12" s="1">
         <v>10.0</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="D12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="1">
         <v>2009.0</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="2" t="s">
+      <c r="F12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>34</v>
       </c>
       <c r="H12" s="3" t="s">
@@ -1628,19 +1712,19 @@
       <c r="A13" s="1">
         <v>11.0</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="D13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="1">
         <v>2009.0</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="3" t="s">
@@ -1658,20 +1742,23 @@
       <c r="B14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>2009.0</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="G14" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="H14" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1683,22 +1770,22 @@
         <v>13.0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>2009.0</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I15" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1709,26 +1796,26 @@
       <c r="A16" s="1">
         <v>14.0</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="2">
+      <c r="C16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="1">
         <v>2007.0</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>52</v>
+      <c r="F16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I16" s="4" t="str">
         <f t="shared" si="1"/>
@@ -1739,47 +1826,50 @@
       <c r="A17" s="1">
         <v>15.0</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>54</v>
+      <c r="B17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="2">
+      <c r="D17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="1">
         <v>2009.0</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>56</v>
+      <c r="F17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1">
         <v>16.0</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="2">
+      <c r="B18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="1">
         <v>2007.0</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I18" s="4" t="str">
         <f t="shared" ref="I18:I20" si="2">F18&amp;" performed by "&amp;(IF(D18="M","Matthew","Allie"))</f>
@@ -1790,26 +1880,26 @@
       <c r="A19" s="1">
         <v>17.0</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="2">
+      <c r="B19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="1">
         <v>2009.0</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>64</v>
+      <c r="F19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I19" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1820,23 +1910,23 @@
       <c r="A20" s="1">
         <v>18.0</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="2">
+      <c r="B20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="1">
         <v>2009.0</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I20" s="4" t="str">
         <f t="shared" si="2"/>
@@ -1847,29 +1937,29 @@
       <c r="A21" s="1">
         <v>19.0</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E21" s="2">
+      <c r="C21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="1">
         <v>2009.0</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>20</v>
+      <c r="G21" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22">
@@ -1877,22 +1967,22 @@
         <v>20.0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="2">
+        <v>76</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="1">
         <v>2010.0</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I22" s="4" t="str">
         <f>F22&amp;" performed by "&amp;(IF(D22="M","Matthew","Allie"))</f>
@@ -1903,50 +1993,50 @@
       <c r="A23" s="1">
         <v>21.0</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>77</v>
+      <c r="B23" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="2">
+      <c r="D23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="1">
         <v>2010.0</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>78</v>
+      <c r="F23" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I23" s="2" t="s">
         <v>81</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1">
         <v>22.0</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="B24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="2">
+      <c r="D24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="1">
         <v>2010.0</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>83</v>
+      <c r="F24" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I24" s="4" t="str">
         <f t="shared" ref="I24:I27" si="3">F24&amp;" performed by "&amp;(IF(D24="M","Matthew","Allie"))</f>
@@ -1957,26 +2047,26 @@
       <c r="A25" s="1">
         <v>23.0</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="2">
+      <c r="C25" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="1">
         <v>2010.0</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>87</v>
+      <c r="F25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I25" s="4" t="str">
         <f t="shared" si="3"/>
@@ -1987,23 +2077,23 @@
       <c r="A26" s="1">
         <v>24.0</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="2">
+      <c r="C26" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="1">
         <v>2010.0</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>83</v>
+      <c r="F26" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I26" s="4" t="str">
         <f t="shared" si="3"/>
@@ -2014,23 +2104,26 @@
       <c r="A27" s="1">
         <v>25.0</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="2">
+      <c r="C27" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="1">
         <v>2010.0</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>83</v>
+      <c r="F27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I27" s="4" t="str">
         <f t="shared" si="3"/>
@@ -2041,50 +2134,50 @@
       <c r="A28" s="1">
         <v>26.0</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>95</v>
+      <c r="B28" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="C28" s="1"/>
-      <c r="D28" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="2">
+      <c r="D28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="1">
         <v>2010.0</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>78</v>
+      <c r="F28" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>81</v>
+        <v>97</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1">
         <v>27.0</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="2">
+      <c r="B29" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="1">
         <v>2010.0</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>64</v>
+      <c r="F29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I29" s="4" t="str">
         <f t="shared" ref="I29:I30" si="4">F29&amp;" performed by "&amp;(IF(D29="M","Matthew","Allie"))</f>
@@ -2095,26 +2188,26 @@
       <c r="A30" s="1">
         <v>28.0</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="2">
+      <c r="C30" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="1">
         <v>2010.0</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>101</v>
+      <c r="F30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I30" s="4" t="str">
         <f t="shared" si="4"/>
@@ -2125,52 +2218,52 @@
       <c r="A31" s="1">
         <v>29.0</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E31" s="2">
+      <c r="C31" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="1">
         <v>2010.0</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="2" t="s">
+      <c r="F31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="I31" s="2" t="s">
         <v>106</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1">
         <v>30.0</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="2">
+      <c r="C32" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="1">
         <v>2011.0</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>83</v>
+      <c r="F32" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I32" s="4" t="str">
         <f t="shared" ref="I32:I33" si="5">F32&amp;" performed by "&amp;(IF(D32="M","Matthew","Allie"))</f>
@@ -2181,23 +2274,23 @@
       <c r="A33" s="1">
         <v>31.0</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="2">
+      <c r="C33" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="1">
         <v>2011.0</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I33" s="4" t="str">
         <f t="shared" si="5"/>
@@ -2209,49 +2302,49 @@
         <v>32.0</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C34" s="1"/>
-      <c r="D34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" s="2">
+      <c r="D34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="1">
         <v>2011.0</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>78</v>
+      <c r="F34" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>81</v>
+        <v>115</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1">
         <v>33.0</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C35" s="2" t="s">
+      <c r="B35" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" s="2">
+      <c r="D35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="1">
         <v>2011.0</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F35" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I35" s="4" t="str">
         <f t="shared" ref="I35:I44" si="6">F35&amp;" performed by "&amp;(IF(D35="M","Matthew","Allie"))</f>
@@ -2262,23 +2355,23 @@
       <c r="A36" s="1">
         <v>34.0</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C36" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" s="2">
+      <c r="C36" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="1">
         <v>2011.0</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>83</v>
+      <c r="F36" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I36" s="4" t="str">
         <f t="shared" si="6"/>
@@ -2289,23 +2382,23 @@
       <c r="A37" s="1">
         <v>35.0</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" s="2">
+      <c r="C37" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="1">
         <v>2011.0</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I37" s="4" t="str">
         <f t="shared" si="6"/>
@@ -2316,23 +2409,23 @@
       <c r="A38" s="1">
         <v>36.0</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" s="2">
+      <c r="B38" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="1">
         <v>2011.0</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I38" s="4" t="str">
         <f t="shared" si="6"/>
@@ -2343,23 +2436,23 @@
       <c r="A39" s="1">
         <v>37.0</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C39" s="2" t="s">
+      <c r="B39" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" s="2">
+      <c r="C39" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="1">
         <v>2011.0</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F39" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I39" s="4" t="str">
         <f t="shared" si="6"/>
@@ -2370,23 +2463,23 @@
       <c r="A40" s="1">
         <v>38.0</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C40" s="2" t="s">
+      <c r="B40" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" s="2">
+      <c r="C40" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="1">
         <v>2011.0</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I40" s="4" t="str">
         <f t="shared" si="6"/>
@@ -2397,26 +2490,26 @@
       <c r="A41" s="1">
         <v>39.0</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C41" s="2" t="s">
+      <c r="B41" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" s="2">
+      <c r="C41" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="1">
         <v>2011.0</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>133</v>
+      <c r="F41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I41" s="4" t="str">
         <f t="shared" si="6"/>
@@ -2427,23 +2520,23 @@
       <c r="A42" s="1">
         <v>40.0</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C42" s="2" t="s">
+      <c r="B42" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" s="2">
+      <c r="C42" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="1">
         <v>2011.0</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F42" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I42" s="4" t="str">
         <f t="shared" si="6"/>
@@ -2454,26 +2547,26 @@
       <c r="A43" s="1">
         <v>41.0</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C43" s="2" t="s">
+      <c r="B43" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43" s="2">
+      <c r="C43" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="1">
         <v>2011.0</v>
       </c>
-      <c r="F43" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>87</v>
+      <c r="F43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I43" s="4" t="str">
         <f t="shared" si="6"/>
@@ -2484,23 +2577,23 @@
       <c r="A44" s="1">
         <v>42.0</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C44" s="2" t="s">
+      <c r="B44" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" s="2">
+      <c r="C44" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="1">
         <v>2011.0</v>
       </c>
-      <c r="F44" s="2" t="s">
-        <v>83</v>
+      <c r="F44" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I44" s="4" t="str">
         <f t="shared" si="6"/>
@@ -2511,52 +2604,52 @@
       <c r="A45" s="1">
         <v>43.0</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C45" s="2" t="s">
+      <c r="B45" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E45" s="2">
+      <c r="C45" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="1">
         <v>2011.0</v>
       </c>
-      <c r="F45" s="2" t="s">
-        <v>78</v>
+      <c r="F45" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>81</v>
+        <v>147</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1">
         <v>44.0</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C46" s="2" t="s">
+      <c r="B46" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E46" s="2">
+      <c r="C46" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="1">
         <v>2012.0</v>
       </c>
-      <c r="F46" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>149</v>
+      <c r="F46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I46" s="4" t="str">
         <f t="shared" ref="I46:I47" si="7">F46&amp;" performed by "&amp;(IF(D46="M","Matthew","Allie"))</f>
@@ -2567,26 +2660,26 @@
       <c r="A47" s="1">
         <v>45.0</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C47" s="2" t="s">
+      <c r="B47" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47" s="2">
+      <c r="C47" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="1">
         <v>2012.0</v>
       </c>
-      <c r="F47" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>153</v>
+      <c r="F47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I47" s="4" t="str">
         <f t="shared" si="7"/>
@@ -2597,45 +2690,48 @@
       <c r="A48" s="1">
         <v>46.0</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>155</v>
+      <c r="B48" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="C48" s="1"/>
-      <c r="D48" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E48" s="2">
+      <c r="D48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E48" s="1">
         <v>2012.0</v>
       </c>
       <c r="F48" s="1"/>
+      <c r="G48" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="H48" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1">
         <v>47.0</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C49" s="2" t="s">
+      <c r="B49" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" s="2">
+      <c r="C49" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="1">
         <v>2012.0</v>
       </c>
-      <c r="F49" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>64</v>
+      <c r="F49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I49" s="4" t="str">
         <f t="shared" ref="I49:I75" si="8">F49&amp;" performed by "&amp;(IF(D49="M","Matthew","Allie"))</f>
@@ -2646,23 +2742,23 @@
       <c r="A50" s="1">
         <v>48.0</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C50" s="2" t="s">
+      <c r="B50" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E50" s="2">
+      <c r="C50" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="1">
         <v>2012.0</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="F50" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I50" s="4" t="str">
         <f t="shared" si="8"/>
@@ -2673,23 +2769,23 @@
       <c r="A51" s="1">
         <v>49.0</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C51" s="2" t="s">
+      <c r="B51" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E51" s="2">
+      <c r="C51" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="1">
         <v>2012.0</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="F51" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I51" s="4" t="str">
         <f t="shared" si="8"/>
@@ -2700,26 +2796,26 @@
       <c r="A52" s="1">
         <v>50.0</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E52" s="2">
+      <c r="B52" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="1">
         <v>2012.0</v>
       </c>
-      <c r="F52" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>101</v>
+      <c r="F52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I52" s="4" t="str">
         <f t="shared" si="8"/>
@@ -2730,26 +2826,26 @@
       <c r="A53" s="1">
         <v>51.0</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C53" s="2" t="s">
+      <c r="B53" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E53" s="2">
+      <c r="C53" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="1">
         <v>2012.0</v>
       </c>
-      <c r="F53" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" s="2" t="s">
+      <c r="F53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I53" s="4" t="str">
         <f t="shared" si="8"/>
@@ -2760,26 +2856,26 @@
       <c r="A54" s="1">
         <v>52.0</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E54" s="2">
+      <c r="B54" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="1">
         <v>2012.0</v>
       </c>
-      <c r="F54" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>149</v>
+      <c r="F54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I54" s="4" t="str">
         <f t="shared" si="8"/>
@@ -2790,26 +2886,26 @@
       <c r="A55" s="1">
         <v>53.0</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E55" s="2">
+      <c r="B55" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" s="1">
         <v>2012.0</v>
       </c>
-      <c r="F55" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>101</v>
+      <c r="F55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I55" s="4" t="str">
         <f t="shared" si="8"/>
@@ -2820,23 +2916,23 @@
       <c r="A56" s="1">
         <v>54.0</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E56" s="2">
+      <c r="B56" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="1">
         <v>2012.0</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="F56" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I56" s="4" t="str">
         <f t="shared" si="8"/>
@@ -2847,26 +2943,26 @@
       <c r="A57" s="1">
         <v>55.0</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C57" s="2" t="s">
+      <c r="B57" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E57" s="2">
+      <c r="C57" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="1">
         <v>2013.0</v>
       </c>
-      <c r="F57" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>179</v>
+      <c r="F57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>180</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I57" s="4" t="str">
         <f t="shared" si="8"/>
@@ -2877,23 +2973,23 @@
       <c r="A58" s="1">
         <v>56.0</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C58" s="2" t="s">
+      <c r="B58" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E58" s="2">
+      <c r="C58" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="1">
         <v>2013.0</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="F58" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I58" s="4" t="str">
         <f t="shared" si="8"/>
@@ -2904,26 +3000,26 @@
       <c r="A59" s="1">
         <v>57.0</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C59" s="2" t="s">
+      <c r="B59" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E59" s="2">
+      <c r="C59" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" s="1">
         <v>2013.0</v>
       </c>
-      <c r="F59" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>101</v>
+      <c r="F59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I59" s="4" t="str">
         <f t="shared" si="8"/>
@@ -2935,25 +3031,25 @@
         <v>58.0</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C60" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E60" s="2">
+      <c r="C60" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" s="1">
         <v>2013.0</v>
       </c>
-      <c r="F60" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>52</v>
+      <c r="F60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I60" s="4" t="str">
         <f t="shared" si="8"/>
@@ -2965,25 +3061,25 @@
         <v>59.0</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C61" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E61" s="2">
+      <c r="C61" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" s="1">
         <v>2013.0</v>
       </c>
-      <c r="F61" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>52</v>
+      <c r="F61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I61" s="4" t="str">
         <f t="shared" si="8"/>
@@ -2994,26 +3090,26 @@
       <c r="A62" s="1">
         <v>60.0</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C62" s="2" t="s">
+      <c r="B62" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E62" s="2">
+      <c r="C62" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" s="1">
         <v>2013.0</v>
       </c>
-      <c r="F62" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" s="2" t="s">
+      <c r="F62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G62" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I62" s="4" t="str">
         <f t="shared" si="8"/>
@@ -3024,26 +3120,26 @@
       <c r="A63" s="1">
         <v>61.0</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C63" s="2" t="s">
+      <c r="B63" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E63" s="2">
+      <c r="C63" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" s="1">
         <v>2014.0</v>
       </c>
-      <c r="F63" s="2" t="s">
+      <c r="F63" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I63" s="4" t="str">
         <f t="shared" si="8"/>
@@ -3054,26 +3150,26 @@
       <c r="A64" s="1">
         <v>62.0</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E64" s="2">
+      <c r="D64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" s="1">
         <v>2014.0</v>
       </c>
-      <c r="F64" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64" s="2" t="s">
+      <c r="F64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I64" s="4" t="str">
         <f t="shared" si="8"/>
@@ -3084,23 +3180,23 @@
       <c r="A65" s="1">
         <v>63.0</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C65" s="2" t="s">
+      <c r="B65" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E65" s="2">
+      <c r="C65" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" s="1">
         <v>2014.0</v>
       </c>
-      <c r="F65" s="2" t="s">
+      <c r="F65" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I65" s="4" t="str">
         <f t="shared" si="8"/>
@@ -3111,26 +3207,26 @@
       <c r="A66" s="1">
         <v>64.0</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C66" s="2" t="s">
+      <c r="B66" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E66" s="2">
+      <c r="C66" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" s="1">
         <v>2014.0</v>
       </c>
-      <c r="F66" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>64</v>
+      <c r="F66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I66" s="4" t="str">
         <f t="shared" si="8"/>
@@ -3141,26 +3237,26 @@
       <c r="A67" s="1">
         <v>65.0</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C67" s="2" t="s">
+      <c r="B67" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E67" s="2">
+      <c r="C67" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E67" s="1">
         <v>2014.0</v>
       </c>
-      <c r="F67" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G67" s="2" t="s">
+      <c r="F67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G67" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I67" s="4" t="str">
         <f t="shared" si="8"/>
@@ -3172,22 +3268,22 @@
         <v>66.0</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E68" s="2">
+        <v>209</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" s="1">
         <v>2014.0</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="F68" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I68" s="4" t="str">
         <f t="shared" si="8"/>
@@ -3198,26 +3294,26 @@
       <c r="A69" s="1">
         <v>67.0</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E69" s="2">
+      <c r="B69" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69" s="1">
         <v>2014.0</v>
       </c>
-      <c r="F69" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>149</v>
+      <c r="F69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I69" s="4" t="str">
         <f t="shared" si="8"/>
@@ -3228,23 +3324,23 @@
       <c r="A70" s="1">
         <v>68.0</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C70" s="2" t="s">
+      <c r="B70" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E70" s="2">
+      <c r="C70" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70" s="1">
         <v>2014.0</v>
       </c>
-      <c r="F70" s="2" t="s">
+      <c r="F70" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I70" s="4" t="str">
         <f t="shared" si="8"/>
@@ -3255,23 +3351,23 @@
       <c r="A71" s="1">
         <v>69.0</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C71" s="2" t="s">
+      <c r="B71" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E71" s="2">
+      <c r="C71" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71" s="1">
         <v>2014.0</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="F71" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I71" s="4" t="str">
         <f t="shared" si="8"/>
@@ -3282,26 +3378,26 @@
       <c r="A72" s="1">
         <v>70.0</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C72" s="2" t="s">
+      <c r="B72" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D72" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E72" s="2">
+      <c r="C72" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" s="1">
         <v>2014.0</v>
       </c>
-      <c r="F72" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G72" s="2" t="s">
+      <c r="F72" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G72" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I72" s="4" t="str">
         <f t="shared" si="8"/>
@@ -3312,23 +3408,23 @@
       <c r="A73" s="1">
         <v>71.0</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C73" s="2" t="s">
+      <c r="B73" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E73" s="2">
+      <c r="C73" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E73" s="1">
         <v>2014.0</v>
       </c>
-      <c r="F73" s="2" t="s">
+      <c r="F73" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I73" s="4" t="str">
         <f t="shared" si="8"/>
@@ -3340,25 +3436,25 @@
         <v>72.0</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C74" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E74" s="2">
+      <c r="C74" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74" s="1">
         <v>2014.0</v>
       </c>
-      <c r="F74" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>153</v>
+      <c r="F74" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I74" s="4" t="str">
         <f t="shared" si="8"/>
@@ -3370,25 +3466,25 @@
         <v>73.0</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E75" s="2">
+        <v>226</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E75" s="1">
         <v>2014.0</v>
       </c>
-      <c r="F75" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>153</v>
+      <c r="F75" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I75" s="4" t="str">
         <f t="shared" si="8"/>
@@ -3399,19 +3495,19 @@
       <c r="A76" s="1">
         <v>74.0</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>227</v>
+      <c r="B76" s="1" t="s">
+        <v>228</v>
       </c>
       <c r="C76" s="1"/>
-      <c r="D76" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E76" s="2">
+      <c r="D76" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E76" s="1">
         <v>2014.0</v>
       </c>
       <c r="F76" s="1"/>
       <c r="G76" s="2" t="s">
-        <v>228</v>
+        <v>58</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>229</v>
@@ -3424,22 +3520,22 @@
       <c r="A77" s="1">
         <v>75.0</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E77" s="2">
+      <c r="C77" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77" s="1">
         <v>2014.0</v>
       </c>
-      <c r="F77" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G77" s="2" t="s">
+      <c r="F77" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G77" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H77" s="3" t="s">
@@ -3454,22 +3550,22 @@
       <c r="A78" s="1">
         <v>76.0</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D78" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E78" s="2">
+      <c r="D78" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78" s="1">
         <v>2014.0</v>
       </c>
-      <c r="F78" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G78" s="2" t="s">
+      <c r="F78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G78" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H78" s="3" t="s">
@@ -3484,22 +3580,22 @@
       <c r="A79" s="1">
         <v>77.0</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E79" s="2">
+      <c r="C79" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79" s="1">
         <v>2014.0</v>
       </c>
-      <c r="F79" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G79" s="2" t="s">
+      <c r="F79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G79" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H79" s="3" t="s">
@@ -3514,19 +3610,19 @@
       <c r="A80" s="1">
         <v>78.0</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E80" s="2">
+      <c r="D80" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80" s="1">
         <v>2015.0</v>
       </c>
-      <c r="F80" s="2" t="s">
+      <c r="F80" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H80" s="3" t="s">
@@ -3541,19 +3637,19 @@
       <c r="A81" s="1">
         <v>79.0</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D81" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E81" s="2">
+      <c r="D81" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E81" s="1">
         <v>2015.0</v>
       </c>
-      <c r="F81" s="2" t="s">
+      <c r="F81" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H81" s="3" t="s">
@@ -3568,23 +3664,23 @@
       <c r="A82" s="1">
         <v>80.0</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D82" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E82" s="2">
+      <c r="D82" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E82" s="1">
         <v>2015.0</v>
       </c>
-      <c r="F82" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>101</v>
+      <c r="F82" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="H82" s="3" t="s">
         <v>246</v>
@@ -3598,23 +3694,23 @@
       <c r="A83" s="1">
         <v>81.0</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D83" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E83" s="2">
+      <c r="D83" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E83" s="1">
         <v>2015.0</v>
       </c>
-      <c r="F83" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>64</v>
+      <c r="F83" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>249</v>
@@ -3628,19 +3724,19 @@
       <c r="A84" s="1">
         <v>82.0</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D84" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E84" s="2">
+      <c r="D84" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E84" s="1">
         <v>2015.0</v>
       </c>
-      <c r="F84" s="2" t="s">
+      <c r="F84" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H84" s="3" t="s">
@@ -3655,19 +3751,19 @@
       <c r="A85" s="1">
         <v>83.0</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D85" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E85" s="2">
+      <c r="D85" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E85" s="1">
         <v>2015.0</v>
       </c>
-      <c r="F85" s="2" t="s">
+      <c r="F85" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H85" s="3" t="s">
@@ -3682,19 +3778,19 @@
       <c r="A86" s="1">
         <v>84.0</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D86" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E86" s="2">
+      <c r="D86" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86" s="1">
         <v>2015.0</v>
       </c>
-      <c r="F86" s="2" t="s">
+      <c r="F86" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H86" s="3" t="s">
@@ -3709,23 +3805,23 @@
       <c r="A87" s="1">
         <v>85.0</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D87" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E87" s="2">
+      <c r="D87" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E87" s="1">
         <v>2015.0</v>
       </c>
-      <c r="F87" s="2" t="s">
+      <c r="F87" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H87" s="3" t="s">
         <v>260</v>
@@ -3739,22 +3835,22 @@
       <c r="A88" s="1">
         <v>86.0</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="D88" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E88" s="2">
+      <c r="D88" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E88" s="1">
         <v>2015.0</v>
       </c>
-      <c r="F88" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H88" s="2" t="s">
+      <c r="F88" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H88" s="3" t="s">
         <v>263</v>
       </c>
       <c r="I88" s="4" t="str">
@@ -3766,22 +3862,22 @@
       <c r="A89" s="1">
         <v>87.0</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C89" s="2" t="s">
+      <c r="B89" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D89" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E89" s="2">
+      <c r="C89" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E89" s="1">
         <v>2015.0</v>
       </c>
-      <c r="F89" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G89" s="2" t="s">
+      <c r="F89" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G89" s="1" t="s">
         <v>264</v>
       </c>
       <c r="H89" s="3" t="s">
@@ -3796,23 +3892,23 @@
       <c r="A90" s="1">
         <v>88.0</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D90" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E90" s="2">
+      <c r="D90" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E90" s="1">
         <v>2015.0</v>
       </c>
-      <c r="F90" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>133</v>
+      <c r="F90" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="H90" s="3" t="s">
         <v>267</v>
@@ -3826,23 +3922,23 @@
       <c r="A91" s="1">
         <v>89.0</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="D91" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E91" s="2">
+      <c r="D91" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E91" s="1">
         <v>2015.0</v>
       </c>
-      <c r="F91" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>133</v>
+      <c r="F91" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>270</v>
@@ -3856,23 +3952,23 @@
       <c r="A92" s="1">
         <v>90.0</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D92" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E92" s="2">
+      <c r="D92" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E92" s="1">
         <v>2015.0</v>
       </c>
-      <c r="F92" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>64</v>
+      <c r="F92" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="H92" s="3" t="s">
         <v>273</v>
@@ -3886,19 +3982,19 @@
       <c r="A93" s="1">
         <v>91.0</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="D93" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E93" s="2">
+      <c r="D93" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E93" s="1">
         <v>2015.0</v>
       </c>
-      <c r="F93" s="2" t="s">
+      <c r="F93" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H93" s="3" t="s">
@@ -3913,23 +4009,23 @@
       <c r="A94" s="1">
         <v>92.0</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D94" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E94" s="2">
+      <c r="D94" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E94" s="1">
         <v>2015.0</v>
       </c>
-      <c r="F94" s="2" t="s">
+      <c r="F94" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="G94" s="2" t="s">
-        <v>133</v>
+      <c r="G94" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>279</v>
@@ -3943,23 +4039,23 @@
       <c r="A95" s="1">
         <v>93.0</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D95" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E95" s="2">
+      <c r="D95" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E95" s="1">
         <v>2015.0</v>
       </c>
-      <c r="F95" s="2" t="s">
+      <c r="F95" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="G95" s="2" t="s">
-        <v>64</v>
+      <c r="G95" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="H95" s="3" t="s">
         <v>281</v>
@@ -3973,23 +4069,23 @@
       <c r="A96" s="1">
         <v>94.0</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="D96" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E96" s="2">
+      <c r="D96" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E96" s="1">
         <v>2016.0</v>
       </c>
-      <c r="F96" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>153</v>
+      <c r="F96" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="H96" s="3" t="s">
         <v>284</v>
@@ -4003,23 +4099,23 @@
       <c r="A97" s="1">
         <v>95.0</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C97" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="D97" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E97" s="2">
+      <c r="D97" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E97" s="1">
         <v>2016.0</v>
       </c>
-      <c r="F97" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>153</v>
+      <c r="F97" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="H97" s="3" t="s">
         <v>286</v>
@@ -4033,22 +4129,22 @@
       <c r="A98" s="1">
         <v>96.0</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B98" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E98" s="2">
+      <c r="C98" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E98" s="1">
         <v>2016.0</v>
       </c>
-      <c r="F98" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G98" s="2" t="s">
+      <c r="F98" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G98" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H98" s="3" t="s">
@@ -4063,22 +4159,22 @@
       <c r="A99" s="1">
         <v>97.0</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C99" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="D99" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E99" s="2">
+      <c r="D99" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E99" s="1">
         <v>2016.0</v>
       </c>
-      <c r="F99" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G99" s="2" t="s">
+      <c r="F99" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G99" s="1" t="s">
         <v>291</v>
       </c>
       <c r="H99" s="3" t="s">
@@ -4093,23 +4189,23 @@
       <c r="A100" s="1">
         <v>98.0</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C100" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="D100" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E100" s="2">
+      <c r="D100" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E100" s="1">
         <v>2016.0</v>
       </c>
-      <c r="F100" s="2" t="s">
+      <c r="F100" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G100" s="2" t="s">
-        <v>133</v>
+      <c r="G100" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>296</v>
@@ -4122,28 +4218,28 @@
       <c r="A101" s="1">
         <v>99.0</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D101" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E101" s="2">
+      <c r="D101" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E101" s="1">
         <v>2016.0</v>
       </c>
-      <c r="F101" s="2" t="s">
+      <c r="F101" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="G101" s="2" t="s">
-        <v>133</v>
+      <c r="G101" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="I101" s="2" t="s">
+      <c r="I101" s="1" t="s">
         <v>301</v>
       </c>
     </row>
@@ -4154,19 +4250,19 @@
       <c r="B102" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E102" s="2">
+      <c r="C102" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E102" s="1">
         <v>2017.0</v>
       </c>
-      <c r="F102" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G102" s="2" t="s">
+      <c r="F102" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G102" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H102" s="3" t="s">
@@ -4181,22 +4277,22 @@
       <c r="A103" s="1">
         <v>101.0</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B103" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C103" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="D103" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E103" s="2">
+      <c r="D103" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E103" s="1">
         <v>2017.0</v>
       </c>
-      <c r="F103" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G103" s="2" t="s">
+      <c r="F103" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G103" s="1" t="s">
         <v>291</v>
       </c>
       <c r="H103" s="3" t="s">
@@ -4211,22 +4307,22 @@
       <c r="A104" s="1">
         <v>102.0</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B104" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C104" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="D104" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E104" s="2">
+      <c r="D104" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E104" s="1">
         <v>2017.0</v>
       </c>
-      <c r="F104" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G104" s="2" t="s">
+      <c r="F104" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G104" s="1" t="s">
         <v>291</v>
       </c>
       <c r="H104" s="3" t="s">
@@ -4241,23 +4337,23 @@
       <c r="A105" s="1">
         <v>103.0</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B105" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C105" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D105" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E105" s="2">
+      <c r="D105" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E105" s="1">
         <v>2017.0</v>
       </c>
-      <c r="F105" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>133</v>
+      <c r="F105" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="H105" s="3" t="s">
         <v>310</v>
@@ -4271,23 +4367,23 @@
       <c r="A106" s="1">
         <v>104.0</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C106" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="D106" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E106" s="2">
+      <c r="D106" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E106" s="1">
         <v>2017.0</v>
       </c>
-      <c r="F106" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>133</v>
+      <c r="F106" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="H106" s="3" t="s">
         <v>313</v>
@@ -4301,23 +4397,26 @@
       <c r="A107" s="1">
         <v>105.0</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B107" s="1" t="s">
         <v>314</v>
       </c>
       <c r="C107" s="1"/>
-      <c r="D107" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E107" s="2">
+      <c r="D107" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E107" s="1">
         <v>2017.0</v>
       </c>
-      <c r="F107" s="2" t="s">
+      <c r="F107" s="1" t="s">
         <v>315</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="H107" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="I107" s="2" t="s">
+      <c r="I107" s="1" t="s">
         <v>317</v>
       </c>
     </row>
@@ -4325,22 +4424,22 @@
       <c r="A108" s="1">
         <v>106.0</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B108" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E108" s="2">
+      <c r="C108" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E108" s="1">
         <v>2017.0</v>
       </c>
-      <c r="F108" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G108" s="2" t="s">
+      <c r="F108" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G108" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H108" s="3" t="s">
@@ -4355,28 +4454,28 @@
       <c r="A109" s="1">
         <v>107.0</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B109" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="C109" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="D109" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E109" s="2">
+      <c r="D109" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E109" s="1">
         <v>2017.0</v>
       </c>
-      <c r="F109" s="2" t="s">
+      <c r="F109" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="G109" s="2" t="s">
-        <v>133</v>
+      <c r="G109" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="H109" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="I109" s="2" t="s">
+      <c r="I109" s="1" t="s">
         <v>324</v>
       </c>
     </row>
@@ -4384,23 +4483,23 @@
       <c r="A110" s="1">
         <v>108.0</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B110" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C110" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="D110" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E110" s="2">
+      <c r="D110" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E110" s="1">
         <v>2017.0</v>
       </c>
-      <c r="F110" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>133</v>
+      <c r="F110" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="H110" s="3" t="s">
         <v>327</v>
@@ -4414,22 +4513,22 @@
       <c r="A111" s="1">
         <v>109.0</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B111" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="C111" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D111" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E111" s="2">
+      <c r="D111" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E111" s="1">
         <v>2018.0</v>
       </c>
-      <c r="F111" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G111" s="2" t="s">
+      <c r="F111" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G111" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H111" s="3" t="s">
@@ -4441,38 +4540,232 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="2">
+      <c r="A112" s="1">
         <v>110.0</v>
       </c>
+      <c r="B112" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E112" s="1">
+        <v>2012.0</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="113">
-      <c r="A113" s="2">
+      <c r="A113" s="1">
         <v>111.0</v>
       </c>
+      <c r="B113" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E113" s="1">
+        <v>2013.0</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="114">
-      <c r="A114" s="2">
+      <c r="A114" s="1">
         <v>112.0</v>
       </c>
+      <c r="B114" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E114" s="1">
+        <v>2012.0</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="115">
-      <c r="A115" s="2">
+      <c r="A115" s="1">
         <v>113.0</v>
       </c>
+      <c r="B115" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E115" s="1">
+        <v>2004.0</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="116">
-      <c r="A116" s="2">
+      <c r="A116" s="1">
         <v>114.0</v>
       </c>
+      <c r="B116" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E116" s="1">
+        <v>2014.0</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="117">
-      <c r="A117" s="2">
+      <c r="A117" s="1">
         <v>115.0</v>
       </c>
+      <c r="B117" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E117" s="1">
+        <v>2014.0</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="I117" s="4" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="118">
-      <c r="A118" s="2">
+      <c r="A118" s="1">
         <v>116.0</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E118" s="1">
+        <v>2014.0</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1">
+        <v>117.0</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E119" s="1">
+        <v>2014.0</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="I119" s="4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1">
+        <v>118.0</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E120" s="1">
+        <v>2014.0</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="I120" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1">
+        <v>119.0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1">
+        <v>120.0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1">
+        <v>121.0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1">
+        <v>122.0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1">
+        <v>123.0</v>
       </c>
     </row>
   </sheetData>
@@ -4562,30 +4855,40 @@
     <hyperlink r:id="rId83" ref="H85"/>
     <hyperlink r:id="rId84" ref="H86"/>
     <hyperlink r:id="rId85" ref="H87"/>
-    <hyperlink r:id="rId86" ref="H89"/>
-    <hyperlink r:id="rId87" ref="H90"/>
-    <hyperlink r:id="rId88" ref="H91"/>
-    <hyperlink r:id="rId89" ref="H92"/>
-    <hyperlink r:id="rId90" ref="H93"/>
-    <hyperlink r:id="rId91" ref="H94"/>
-    <hyperlink r:id="rId92" ref="H95"/>
-    <hyperlink r:id="rId93" ref="H96"/>
-    <hyperlink r:id="rId94" ref="H97"/>
-    <hyperlink r:id="rId95" ref="H98"/>
-    <hyperlink r:id="rId96" ref="H99"/>
-    <hyperlink r:id="rId97" ref="H100"/>
-    <hyperlink r:id="rId98" ref="H101"/>
-    <hyperlink r:id="rId99" ref="H102"/>
-    <hyperlink r:id="rId100" ref="H103"/>
-    <hyperlink r:id="rId101" ref="H104"/>
-    <hyperlink r:id="rId102" ref="H105"/>
-    <hyperlink r:id="rId103" ref="H106"/>
-    <hyperlink r:id="rId104" ref="H107"/>
-    <hyperlink r:id="rId105" ref="H108"/>
-    <hyperlink r:id="rId106" ref="H109"/>
-    <hyperlink r:id="rId107" ref="H110"/>
-    <hyperlink r:id="rId108" ref="H111"/>
+    <hyperlink r:id="rId86" ref="H88"/>
+    <hyperlink r:id="rId87" ref="H89"/>
+    <hyperlink r:id="rId88" ref="H90"/>
+    <hyperlink r:id="rId89" ref="H91"/>
+    <hyperlink r:id="rId90" ref="H92"/>
+    <hyperlink r:id="rId91" ref="H93"/>
+    <hyperlink r:id="rId92" ref="H94"/>
+    <hyperlink r:id="rId93" ref="H95"/>
+    <hyperlink r:id="rId94" ref="H96"/>
+    <hyperlink r:id="rId95" ref="H97"/>
+    <hyperlink r:id="rId96" ref="H98"/>
+    <hyperlink r:id="rId97" ref="H99"/>
+    <hyperlink r:id="rId98" ref="H100"/>
+    <hyperlink r:id="rId99" ref="H101"/>
+    <hyperlink r:id="rId100" ref="H102"/>
+    <hyperlink r:id="rId101" ref="H103"/>
+    <hyperlink r:id="rId102" ref="H104"/>
+    <hyperlink r:id="rId103" ref="H105"/>
+    <hyperlink r:id="rId104" ref="H106"/>
+    <hyperlink r:id="rId105" ref="H107"/>
+    <hyperlink r:id="rId106" ref="H108"/>
+    <hyperlink r:id="rId107" ref="H109"/>
+    <hyperlink r:id="rId108" ref="H110"/>
+    <hyperlink r:id="rId109" ref="H111"/>
+    <hyperlink r:id="rId110" ref="H112"/>
+    <hyperlink r:id="rId111" ref="H113"/>
+    <hyperlink r:id="rId112" ref="H114"/>
+    <hyperlink r:id="rId113" ref="H115"/>
+    <hyperlink r:id="rId114" ref="H116"/>
+    <hyperlink r:id="rId115" ref="H117"/>
+    <hyperlink r:id="rId116" ref="H118"/>
+    <hyperlink r:id="rId117" ref="H119"/>
+    <hyperlink r:id="rId118" ref="H120"/>
   </hyperlinks>
-  <drawing r:id="rId109"/>
+  <drawing r:id="rId119"/>
 </worksheet>
 </file>
--- a/videos/Website videos.xlsx
+++ b/videos/Website videos.xlsx
@@ -11,10 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="359">
-  <si>
-    <t>*** = unsure (will need to check w sheet music at home or google)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="393">
   <si>
     <t>#</t>
   </si>
@@ -247,6 +244,9 @@
     <t>Georg Benda</t>
   </si>
   <si>
+    <t>Piano, Best of</t>
+  </si>
+  <si>
     <t>https://youtu.be/4oPnFsYPNX8</t>
   </si>
   <si>
@@ -331,6 +331,9 @@
     <t>Traditional</t>
   </si>
   <si>
+    <t>Christmas, Best of,</t>
+  </si>
+  <si>
     <t>https://youtu.be/nLGWf4aoEVA</t>
   </si>
   <si>
@@ -538,6 +541,9 @@
     <t>Le Onde</t>
   </si>
   <si>
+    <t>Best of, Classical,</t>
+  </si>
+  <si>
     <t>https://youtu.be/OWWDsi_SwHg</t>
   </si>
   <si>
@@ -769,6 +775,9 @@
     <t>Daniel Rosenfeld</t>
   </si>
   <si>
+    <t>Game,</t>
+  </si>
+  <si>
     <t>https://youtu.be/PeE7cwUZ_3g</t>
   </si>
   <si>
@@ -898,7 +907,7 @@
     <t>Tyler Joseph</t>
   </si>
   <si>
-    <t>Piano, Vocal, Drums,</t>
+    <t>Piano, Vocals, Drums,</t>
   </si>
   <si>
     <t>https://youtu.be/sN3UBLvljgk</t>
@@ -979,7 +988,7 @@
     <t>Joe Hahn, Brad Delson, Rob Bourdon, Dave Farrell, Mike Shinoda, Chester Bennington</t>
   </si>
   <si>
-    <t>Piano, Vocal</t>
+    <t>Piano, Vocals</t>
   </si>
   <si>
     <t>https://youtu.be/ezTz9-RyOuo</t>
@@ -1054,6 +1063,9 @@
     <t>https://youtu.be/tBK2iplfs7w</t>
   </si>
   <si>
+    <t>Nannie's birthday, Live,</t>
+  </si>
+  <si>
     <t>https://youtu.be/i8f0oKvUsvM</t>
   </si>
   <si>
@@ -1069,6 +1081,9 @@
     <t>Jonathan, Simon, Aaron</t>
   </si>
   <si>
+    <t>Drums, Piano, Vocals</t>
+  </si>
+  <si>
     <t>https://youtu.be/MnEy-AhNPcE</t>
   </si>
   <si>
@@ -1088,13 +1103,100 @@
   </si>
   <si>
     <t>Piano performed by Matthew, drums performed by Jonathan, keyboard performed by Simon</t>
+  </si>
+  <si>
+    <t>Mii Channel Theme</t>
+  </si>
+  <si>
+    <t>Kazumi Totaka</t>
+  </si>
+  <si>
+    <t>https://youtu.be/dmRY_tNFr_k</t>
+  </si>
+  <si>
+    <t>Dot</t>
+  </si>
+  <si>
+    <t>Chilly Gonzales</t>
+  </si>
+  <si>
+    <t>https://youtu.be/1HFDwqaaZh8</t>
+  </si>
+  <si>
+    <t>TSLAMP</t>
+  </si>
+  <si>
+    <t>MGMT</t>
+  </si>
+  <si>
+    <t>https://youtu.be/NzdK7cINxAI</t>
+  </si>
+  <si>
+    <t>Maud Gone</t>
+  </si>
+  <si>
+    <t>Will Toledo</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Fx-E-lgt8Fo</t>
+  </si>
+  <si>
+    <t>Nefeli</t>
+  </si>
+  <si>
+    <t>https://youtu.be/YPrcLRC_AOY</t>
+  </si>
+  <si>
+    <t>Pluto</t>
+  </si>
+  <si>
+    <t>Sufjan Stevens, Bryce Dessner, Nico Muhly, James McAlister</t>
+  </si>
+  <si>
+    <t>https://youtu.be/gzQ5mQulmig</t>
+  </si>
+  <si>
+    <t>Cosmic Hero</t>
+  </si>
+  <si>
+    <t>https://youtu.be/0tT6R6cxE5A</t>
+  </si>
+  <si>
+    <t>The Weather</t>
+  </si>
+  <si>
+    <t>Nicholas Allbrook, Jay Watson</t>
+  </si>
+  <si>
+    <t>https://youtu.be/BsubCoC3cW4</t>
+  </si>
+  <si>
+    <t>Грабли (Grabli)</t>
+  </si>
+  <si>
+    <t>Ivan Alexandrovich Alexeyev</t>
+  </si>
+  <si>
+    <t>https://youtu.be/aFGOMXFRBio</t>
+  </si>
+  <si>
+    <t>Drunk Drivers/Killer Whales</t>
+  </si>
+  <si>
+    <t>https://youtu.be/0WJEvnMjWM8</t>
+  </si>
+  <si>
+    <t>Blue Bucket of Gold</t>
+  </si>
+  <si>
+    <t>https://youtu.be/cB-A8gxaw98</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1104,7 +1206,6 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <u/>
       <color rgb="FF0000FF"/>
@@ -1134,7 +1235,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1144,14 +1245,11 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1381,710 +1479,726 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+      <c r="A2" s="1">
+        <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2007.0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="3" t="str">
+        <f t="shared" ref="I2:I15" si="1">F2&amp;" performed by "&amp;(IF(D2="M","Matthew","Allie"))</f>
+        <v>Piano performed by Matthew</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1">
-        <v>2007.0</v>
+        <v>2009.0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="4" t="str">
-        <f t="shared" ref="I3:I16" si="1">F3&amp;" performed by "&amp;(IF(D3="M","Matthew","Allie"))</f>
-        <v>Piano performed by Matthew</v>
+        <v>19</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Clarinet performed by Allie</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E4" s="1">
         <v>2009.0</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="4" t="str">
+      <c r="I4" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Piano performed by Matthew</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2009.0</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Piano performed by Matthew</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2007.0</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Piano performed by Matthew</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2008.0</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Piano performed by Matthew</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2009.0</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Piano performed by Matthew</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2008.0</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Piano performed by Matthew</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2008.0</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Piano performed by Matthew</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2009.0</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Piano performed by Matthew</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2009.0</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Piano performed by Matthew</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2009.0</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Clarinet performed by Allie</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2009.0</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Piano performed by Matthew</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2009.0</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Piano performed by Matthew</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="1">
-        <v>2007.0</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Piano performed by Matthew</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="1">
-        <v>2008.0</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Piano performed by Matthew</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1">
-        <v>2009.0</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Piano performed by Matthew</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="1">
-        <v>2008.0</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Piano performed by Matthew</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="1">
-        <v>2008.0</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Piano performed by Matthew</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="1">
-        <v>2009.0</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Piano performed by Matthew</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="1">
-        <v>2009.0</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I13" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Piano performed by Matthew</v>
-      </c>
-    </row>
     <row r="14">
       <c r="A14" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="B14" s="2" t="s">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14" s="1">
         <v>2009.0</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I14" s="4" t="str">
+        <v>18</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Clarinet performed by Allie</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>49</v>
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E15" s="1">
-        <v>2009.0</v>
+        <v>2007.0</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="4" t="str">
+        <v>12</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>Clarinet performed by Allie</v>
+        <v>Piano performed by Matthew</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="E16" s="1">
-        <v>2007.0</v>
+        <v>2009.0</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I16" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>Piano performed by Matthew</v>
+        <v>57</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="D17" s="1" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="E17" s="1">
-        <v>2009.0</v>
+        <v>2007.0</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>60</v>
+        <v>12</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I17" s="3" t="str">
+        <f t="shared" ref="I17:I19" si="2">F17&amp;" performed by "&amp;(IF(D17="M","Matthew","Allie"))</f>
+        <v>Piano performed by Matthew</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E18" s="1">
-        <v>2007.0</v>
+        <v>2009.0</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I18" s="4" t="str">
-        <f t="shared" ref="I18:I20" si="2">F18&amp;" performed by "&amp;(IF(D18="M","Matthew","Allie"))</f>
+        <v>12</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" s="3" t="str">
+        <f t="shared" si="2"/>
         <v>Piano performed by Matthew</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E19" s="1">
         <v>2009.0</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I19" s="4" t="str">
+        <v>12</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I19" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Piano performed by Matthew</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="E20" s="1">
         <v>2009.0</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I20" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Piano performed by Matthew</v>
+        <v>18</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E21" s="1">
-        <v>2009.0</v>
+        <v>2010.0</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I21" s="3" t="str">
+        <f>F21&amp;" performed by "&amp;(IF(D21="M","Matthew","Allie"))</f>
+        <v>Piano, Best of performed by Matthew</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>77</v>
-      </c>
+        <v>21.0</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E22" s="1">
         <v>2010.0</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="I22" s="4" t="str">
-        <f>F22&amp;" performed by "&amp;(IF(D22="M","Matthew","Allie"))</f>
-        <v>Piano performed by Matthew</v>
+        <v>80</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" s="1"/>
+        <v>83</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="D23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E23" s="1">
         <v>2010.0</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I23" s="3" t="str">
+        <f t="shared" ref="I23:I26" si="3">F23&amp;" performed by "&amp;(IF(D23="M","Matthew","Allie"))</f>
+        <v>Euphonium performed by Matthew</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E24" s="1">
         <v>2010.0</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="I24" s="4" t="str">
-        <f t="shared" ref="I24:I27" si="3">F24&amp;" performed by "&amp;(IF(D24="M","Matthew","Allie"))</f>
-        <v>Euphonium performed by Matthew</v>
+        <v>12</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I24" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Piano performed by Matthew</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E25" s="1">
         <v>2010.0</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="I25" s="4" t="str">
+        <v>84</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I25" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Piano performed by Matthew</v>
+        <v>Euphonium performed by Matthew</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E26" s="1">
         <v>2010.0</v>
@@ -2092,2803 +2206,3115 @@
       <c r="F26" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="I26" s="4" t="str">
+      <c r="G26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I26" s="3" t="str">
         <f t="shared" si="3"/>
         <v>Euphonium performed by Matthew</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>94</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="E27" s="1">
         <v>2010.0</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I27" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>Euphonium performed by Matthew</v>
+        <v>80</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C28" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="D28" s="1" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="E28" s="1">
         <v>2010.0</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>82</v>
+        <v>12</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I28" s="3" t="str">
+        <f t="shared" ref="I28:I29" si="4">F28&amp;" performed by "&amp;(IF(D28="M","Matthew","Allie"))</f>
+        <v>Piano performed by Matthew</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E29" s="1">
         <v>2010.0</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="I29" s="4" t="str">
-        <f t="shared" ref="I29:I30" si="4">F29&amp;" performed by "&amp;(IF(D29="M","Matthew","Allie"))</f>
+        <v>102</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I29" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>Piano performed by Matthew</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="E30" s="1">
         <v>2010.0</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="I30" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Piano performed by Matthew</v>
+        <v>106</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="E31" s="1">
-        <v>2010.0</v>
+        <v>2011.0</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>107</v>
+        <v>84</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I31" s="3" t="str">
+        <f t="shared" ref="I31:I32" si="5">F31&amp;" performed by "&amp;(IF(D31="M","Matthew","Allie"))</f>
+        <v>Euphonium performed by Matthew</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E32" s="1">
         <v>2011.0</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="I32" s="4" t="str">
-        <f t="shared" ref="I32:I33" si="5">F32&amp;" performed by "&amp;(IF(D32="M","Matthew","Allie"))</f>
-        <v>Euphonium performed by Matthew</v>
+        <v>12</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I32" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Piano performed by Matthew</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1">
-        <v>31.0</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>112</v>
-      </c>
+        <v>32.0</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E33" s="1">
         <v>2011.0</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="I33" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>Piano performed by Matthew</v>
+        <v>80</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1">
-        <v>32.0</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C34" s="1"/>
+        <v>33.0</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D34" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E34" s="1">
         <v>2011.0</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>82</v>
+        <v>12</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I34" s="3" t="str">
+        <f t="shared" ref="I34:I43" si="6">F34&amp;" performed by "&amp;(IF(D34="M","Matthew","Allie"))</f>
+        <v>Piano performed by Matthew</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E35" s="1">
         <v>2011.0</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="I35" s="4" t="str">
-        <f t="shared" ref="I35:I44" si="6">F35&amp;" performed by "&amp;(IF(D35="M","Matthew","Allie"))</f>
-        <v>Piano performed by Matthew</v>
+        <v>84</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I35" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>Euphonium performed by Matthew</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E36" s="1">
         <v>2011.0</v>
       </c>
       <c r="F36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I36" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>Piano performed by Matthew</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1">
+        <v>36.0</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="1">
+        <v>2011.0</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I37" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>Piano performed by Matthew</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1">
+        <v>37.0</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="1">
+        <v>2011.0</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I38" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>Piano performed by Matthew</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="1">
+        <v>2011.0</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I39" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>Piano performed by Matthew</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1">
+        <v>39.0</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="1">
+        <v>2011.0</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I40" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>Piano performed by Matthew</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="1">
+        <v>2011.0</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I41" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>Piano performed by Matthew</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="1">
+        <v>2011.0</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I42" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>Piano performed by Matthew</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1">
+        <v>42.0</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="1">
+        <v>2011.0</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H36" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="I36" s="4" t="str">
+      <c r="H43" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I43" s="3" t="str">
         <f t="shared" si="6"/>
         <v>Euphonium performed by Matthew</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1">
-        <v>35.0</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" s="1">
-        <v>2011.0</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="I37" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>Piano performed by Matthew</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1">
-        <v>36.0</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" s="1">
-        <v>2011.0</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="I38" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>Piano performed by Matthew</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1">
-        <v>37.0</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" s="1">
-        <v>2011.0</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I39" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>Piano performed by Matthew</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1">
-        <v>38.0</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" s="1">
-        <v>2011.0</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="I40" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>Piano performed by Matthew</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1">
-        <v>39.0</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" s="1">
-        <v>2011.0</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="I41" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>Piano performed by Matthew</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1">
-        <v>40.0</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" s="1">
-        <v>2011.0</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="I42" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>Piano performed by Matthew</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1">
-        <v>41.0</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43" s="1">
-        <v>2011.0</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="I43" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>Piano performed by Matthew</v>
-      </c>
-    </row>
     <row r="44">
       <c r="A44" s="1">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E44" s="1">
         <v>2011.0</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="I44" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>Euphonium performed by Matthew</v>
+        <v>80</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1">
-        <v>43.0</v>
+        <v>44.0</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E45" s="1">
-        <v>2011.0</v>
+        <v>2012.0</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>82</v>
+        <v>12</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I45" s="3" t="str">
+        <f t="shared" ref="I45:I46" si="7">F45&amp;" performed by "&amp;(IF(D45="M","Matthew","Allie"))</f>
+        <v>Piano performed by Matthew</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1">
-        <v>44.0</v>
+        <v>45.0</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E46" s="1">
         <v>2012.0</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="I46" s="4" t="str">
-        <f t="shared" ref="I46:I47" si="7">F46&amp;" performed by "&amp;(IF(D46="M","Matthew","Allie"))</f>
+        <v>155</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I46" s="3" t="str">
+        <f t="shared" si="7"/>
         <v>Piano performed by Matthew</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>153</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="E47" s="1">
         <v>2012.0</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="I47" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>Piano performed by Matthew</v>
+        <v>57</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1">
-        <v>46.0</v>
+        <v>47.0</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C48" s="1"/>
+        <v>159</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="D48" s="1" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="E48" s="1">
         <v>2012.0</v>
       </c>
-      <c r="F48" s="1"/>
+      <c r="F48" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="G48" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>157</v>
+        <v>65</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="I48" s="3" t="str">
+        <f t="shared" ref="I48:I74" si="8">F48&amp;" performed by "&amp;(IF(D48="M","Matthew","Allie"))</f>
+        <v>Piano performed by Matthew</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1">
-        <v>47.0</v>
+        <v>48.0</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E49" s="1">
         <v>2012.0</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="I49" s="4" t="str">
-        <f t="shared" ref="I49:I75" si="8">F49&amp;" performed by "&amp;(IF(D49="M","Matthew","Allie"))</f>
+        <v>12</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="I49" s="3" t="str">
+        <f t="shared" si="8"/>
         <v>Piano performed by Matthew</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1">
-        <v>48.0</v>
+        <v>49.0</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E50" s="1">
         <v>2012.0</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="I50" s="4" t="str">
+        <v>12</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I50" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Piano performed by Matthew</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1">
-        <v>49.0</v>
+        <v>50.0</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>165</v>
+        <v>94</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E51" s="1">
         <v>2012.0</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="I51" s="4" t="str">
+        <v>12</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I51" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Piano performed by Matthew</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1">
-        <v>50.0</v>
+        <v>51.0</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>94</v>
+        <v>171</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E52" s="1">
         <v>2012.0</v>
       </c>
       <c r="F52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G52" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="I52" s="4" t="str">
+      <c r="H52" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="I52" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Piano performed by Matthew</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1">
-        <v>51.0</v>
+        <v>52.0</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E53" s="1">
         <v>2012.0</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="I53" s="4" t="str">
+        <v>151</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="I53" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Piano performed by Matthew</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1">
-        <v>52.0</v>
+        <v>53.0</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E54" s="1">
         <v>2012.0</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="I54" s="4" t="str">
+        <v>176</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="I54" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Piano performed by Matthew</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1">
-        <v>53.0</v>
+        <v>54.0</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E55" s="1">
         <v>2012.0</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="I55" s="4" t="str">
+        <v>12</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="I55" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Piano performed by Matthew</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1">
-        <v>54.0</v>
+        <v>55.0</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E56" s="1">
-        <v>2012.0</v>
+        <v>2013.0</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="I56" s="4" t="str">
+        <v>12</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="I56" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Piano performed by Matthew</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1">
-        <v>55.0</v>
+        <v>56.0</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E57" s="1">
         <v>2013.0</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="I57" s="4" t="str">
+        <v>12</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="I57" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Piano performed by Matthew</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1">
-        <v>56.0</v>
+        <v>57.0</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E58" s="1">
         <v>2013.0</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="I58" s="4" t="str">
+        <v>12</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I58" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Piano performed by Matthew</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1">
-        <v>57.0</v>
+        <v>58.0</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E59" s="1">
         <v>2013.0</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="I59" s="4" t="str">
+        <v>52</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I59" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Piano performed by Matthew</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1">
-        <v>58.0</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>188</v>
+        <v>59.0</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E60" s="1">
         <v>2013.0</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="I60" s="4" t="str">
+        <v>52</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="I60" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Piano performed by Matthew</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1">
-        <v>59.0</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>191</v>
+        <v>60.0</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E61" s="1">
         <v>2013.0</v>
       </c>
       <c r="F61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G61" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="I61" s="4" t="str">
+      <c r="H61" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="I61" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Piano performed by Matthew</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E62" s="1">
-        <v>2013.0</v>
+        <v>2014.0</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="I62" s="4" t="str">
+        <v>201</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="I62" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Piano performed by Matthew</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1">
-        <v>61.0</v>
+        <v>62.0</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>197</v>
+        <v>15</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>198</v>
+        <v>16</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E63" s="1">
         <v>2014.0</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="I63" s="4" t="str">
+        <v>19</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="I63" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Piano performed by Matthew</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1">
-        <v>62.0</v>
+        <v>63.0</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>16</v>
+        <v>204</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>17</v>
+        <v>205</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E64" s="1">
         <v>2014.0</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="I64" s="4" t="str">
+        <v>12</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="I64" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Piano performed by Matthew</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1">
-        <v>63.0</v>
+        <v>64.0</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>203</v>
+        <v>160</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E65" s="1">
         <v>2014.0</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="I65" s="4" t="str">
+        <v>12</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I65" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Piano performed by Matthew</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1">
-        <v>64.0</v>
+        <v>65.0</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>158</v>
+        <v>208</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>159</v>
+        <v>209</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E66" s="1">
         <v>2014.0</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="I66" s="4" t="str">
+        <v>19</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I66" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Piano performed by Matthew</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1">
-        <v>65.0</v>
+        <v>66.0</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E67" s="1">
         <v>2014.0</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H67" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="I67" s="4" t="str">
+        <v>12</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="I67" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Piano performed by Matthew</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1">
-        <v>66.0</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>209</v>
+        <v>67.0</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E68" s="1">
         <v>2014.0</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I68" s="4" t="str">
+        <v>12</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="I68" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Piano performed by Matthew</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1">
-        <v>67.0</v>
+        <v>68.0</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>172</v>
+        <v>214</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>149</v>
+        <v>215</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E69" s="1">
         <v>2014.0</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="I69" s="4" t="str">
+        <v>12</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I69" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Piano performed by Matthew</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1">
-        <v>68.0</v>
+        <v>69.0</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>212</v>
+        <v>130</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>213</v>
+        <v>131</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E70" s="1">
         <v>2014.0</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="I70" s="4" t="str">
+        <v>12</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="I70" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Piano performed by Matthew</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1">
-        <v>69.0</v>
+        <v>70.0</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>129</v>
+        <v>218</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>130</v>
+        <v>219</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E71" s="1">
         <v>2014.0</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="I71" s="4" t="str">
+        <v>12</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I71" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Piano performed by Matthew</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1">
-        <v>70.0</v>
+        <v>71.0</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E72" s="1">
         <v>2014.0</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="I72" s="4" t="str">
+        <v>12</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I72" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Piano performed by Matthew</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1">
-        <v>71.0</v>
+        <v>72.0</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E73" s="1">
         <v>2014.0</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H73" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="I73" s="4" t="str">
+        <v>226</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I73" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>Piano performed by Matthew</v>
+        <v>Organ performed by Matthew</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1">
-        <v>72.0</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>222</v>
+        <v>73.0</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>228</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E74" s="1">
         <v>2014.0</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>224</v>
+        <v>12</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="H74" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="I74" s="4" t="str">
+        <v>155</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I74" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>Organ performed by Matthew</v>
+        <v>Piano performed by Matthew</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1">
-        <v>73.0</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>223</v>
-      </c>
+        <v>74.0</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C75" s="1"/>
       <c r="D75" s="1" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="E75" s="1">
         <v>2014.0</v>
       </c>
-      <c r="F75" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F75" s="1"/>
       <c r="G75" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="H75" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="I75" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>Piano performed by Matthew</v>
+        <v>57</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1">
-        <v>74.0</v>
+        <v>75.0</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C76" s="1"/>
+        <v>233</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="D76" s="1" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="E76" s="1">
         <v>2014.0</v>
       </c>
-      <c r="F76" s="1"/>
-      <c r="G76" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>230</v>
+      <c r="F76" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="I76" s="3" t="str">
+        <f t="shared" ref="I76:I98" si="9">F76&amp;" performed by "&amp;(IF(D76="M","Matthew","Allie"))</f>
+        <v>Piano performed by Matthew</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1">
-        <v>75.0</v>
+        <v>76.0</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>105</v>
+        <v>236</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E77" s="1">
         <v>2014.0</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H77" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="I77" s="4" t="str">
-        <f t="shared" ref="I77:I99" si="9">F77&amp;" performed by "&amp;(IF(D77="M","Matthew","Allie"))</f>
+        <v>19</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="I77" s="3" t="str">
+        <f t="shared" si="9"/>
         <v>Piano performed by Matthew</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1">
-        <v>76.0</v>
+        <v>77.0</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>234</v>
+        <v>105</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E78" s="1">
         <v>2014.0</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I78" s="4" t="str">
+        <v>19</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="I78" s="3" t="str">
         <f t="shared" si="9"/>
         <v>Piano performed by Matthew</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1">
-        <v>77.0</v>
+        <v>78.0</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>105</v>
+        <v>241</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E79" s="1">
-        <v>2014.0</v>
+        <v>2015.0</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H79" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="I79" s="4" t="str">
+        <v>12</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="I79" s="3" t="str">
         <f t="shared" si="9"/>
         <v>Piano performed by Matthew</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1">
-        <v>78.0</v>
+        <v>79.0</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E80" s="1">
         <v>2015.0</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H80" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="I80" s="4" t="str">
+        <v>12</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I80" s="3" t="str">
         <f t="shared" si="9"/>
         <v>Piano performed by Matthew</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1">
-        <v>79.0</v>
+        <v>80.0</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E81" s="1">
         <v>2015.0</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="I81" s="4" t="str">
+        <v>12</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="I81" s="3" t="str">
         <f t="shared" si="9"/>
         <v>Piano performed by Matthew</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1">
-        <v>80.0</v>
+        <v>81.0</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E82" s="1">
         <v>2015.0</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H82" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="I82" s="4" t="str">
+        <v>65</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="I82" s="3" t="str">
         <f t="shared" si="9"/>
         <v>Piano performed by Matthew</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1">
-        <v>81.0</v>
+        <v>82.0</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E83" s="1">
         <v>2015.0</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="I83" s="4" t="str">
+        <v>254</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="I83" s="3" t="str">
         <f t="shared" si="9"/>
         <v>Piano performed by Matthew</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1">
-        <v>82.0</v>
+        <v>83.0</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E84" s="1">
         <v>2015.0</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H84" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="I84" s="4" t="str">
+        <v>12</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="I84" s="3" t="str">
         <f t="shared" si="9"/>
         <v>Piano performed by Matthew</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1">
-        <v>83.0</v>
+        <v>84.0</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E85" s="1">
         <v>2015.0</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H85" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="I85" s="4" t="str">
+        <v>12</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="I85" s="3" t="str">
         <f t="shared" si="9"/>
         <v>Piano performed by Matthew</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1">
-        <v>84.0</v>
+        <v>85.0</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E86" s="1">
         <v>2015.0</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H86" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="I86" s="4" t="str">
+        <v>12</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="I86" s="3" t="str">
         <f t="shared" si="9"/>
         <v>Piano performed by Matthew</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1">
-        <v>85.0</v>
+        <v>86.0</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E87" s="1">
         <v>2015.0</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H87" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="I87" s="4" t="str">
+        <v>12</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="I87" s="3" t="str">
         <f t="shared" si="9"/>
         <v>Piano performed by Matthew</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1">
-        <v>86.0</v>
+        <v>87.0</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>261</v>
+        <v>170</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>262</v>
+        <v>171</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E88" s="1">
         <v>2015.0</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H88" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="I88" s="4" t="str">
+        <v>12</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="I88" s="3" t="str">
         <f t="shared" si="9"/>
         <v>Piano performed by Matthew</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1">
-        <v>87.0</v>
+        <v>88.0</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>169</v>
+        <v>269</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>170</v>
+        <v>241</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E89" s="1">
         <v>2015.0</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="I89" s="4" t="str">
+        <v>135</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="I89" s="3" t="str">
         <f t="shared" si="9"/>
         <v>Piano performed by Matthew</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1">
-        <v>88.0</v>
+        <v>89.0</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>239</v>
+        <v>272</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E90" s="1">
         <v>2015.0</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H90" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="I90" s="4" t="str">
+        <v>135</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="I90" s="3" t="str">
         <f t="shared" si="9"/>
         <v>Piano performed by Matthew</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1">
-        <v>89.0</v>
+        <v>90.0</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E91" s="1">
         <v>2015.0</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="I91" s="4" t="str">
+        <v>65</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I91" s="3" t="str">
         <f t="shared" si="9"/>
         <v>Piano performed by Matthew</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1">
-        <v>90.0</v>
+        <v>91.0</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E92" s="1">
         <v>2015.0</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H92" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="I92" s="4" t="str">
+        <v>12</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="I92" s="3" t="str">
         <f t="shared" si="9"/>
         <v>Piano performed by Matthew</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1">
-        <v>91.0</v>
+        <v>92.0</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>275</v>
+        <v>241</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E93" s="1">
         <v>2015.0</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H93" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="I93" s="4" t="str">
+        <v>281</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="I93" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>Piano performed by Matthew</v>
+        <v>Guitar performed by Matthew</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1">
-        <v>92.0</v>
+        <v>93.0</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E94" s="1">
         <v>2015.0</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="I94" s="4" t="str">
+        <v>65</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="I94" s="3" t="str">
         <f t="shared" si="9"/>
         <v>Guitar performed by Matthew</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1">
-        <v>93.0</v>
+        <v>94.0</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E95" s="1">
-        <v>2015.0</v>
+        <v>2016.0</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>278</v>
+        <v>12</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H95" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="I95" s="4" t="str">
+        <v>155</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="I95" s="3" t="str">
         <f t="shared" si="9"/>
-        <v>Guitar performed by Matthew</v>
+        <v>Piano performed by Matthew</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1">
-        <v>94.0</v>
+        <v>95.0</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E96" s="1">
         <v>2016.0</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="H96" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="I96" s="4" t="str">
+        <v>155</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I96" s="3" t="str">
         <f t="shared" si="9"/>
         <v>Piano performed by Matthew</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1">
-        <v>95.0</v>
+        <v>96.0</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>283</v>
+        <v>94</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E97" s="1">
         <v>2016.0</v>
       </c>
       <c r="F97" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G97" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G97" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="H97" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I97" s="4" t="str">
+      <c r="H97" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I97" s="3" t="str">
         <f t="shared" si="9"/>
         <v>Piano performed by Matthew</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1">
-        <v>96.0</v>
+        <v>97.0</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>94</v>
+        <v>293</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E98" s="1">
         <v>2016.0</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H98" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="I98" s="4" t="str">
+        <v>294</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="I98" s="3" t="str">
         <f t="shared" si="9"/>
         <v>Piano performed by Matthew</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1">
-        <v>97.0</v>
+        <v>98.0</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="E99" s="1">
         <v>2016.0</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>13</v>
+        <v>298</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="H99" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="I99" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>Piano performed by Matthew</v>
+        <v>135</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1">
-        <v>98.0</v>
+        <v>99.0</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>294</v>
+        <v>241</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E100" s="1">
         <v>2016.0</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>296</v>
+        <v>135</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>303</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1">
-        <v>99.0</v>
+        <v>100.0</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>239</v>
+        <v>94</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="E101" s="1">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>299</v>
+        <v>12</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="I101" s="1" t="s">
-        <v>301</v>
+        <v>13</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="I101" s="3" t="str">
+        <f t="shared" ref="I101:I105" si="10">F101&amp;" performed by "&amp;(IF(D101="M","Matthew","Allie"))</f>
+        <v>Piano performed by Matthew</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1">
-        <v>100.0</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>302</v>
+        <v>101.0</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>307</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>94</v>
+        <v>293</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E102" s="1">
         <v>2017.0</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="I102" s="4" t="str">
-        <f t="shared" ref="I102:I106" si="10">F102&amp;" performed by "&amp;(IF(D102="M","Matthew","Allie"))</f>
+        <v>294</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="I102" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>Piano performed by Matthew</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1">
-        <v>101.0</v>
+        <v>102.0</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E103" s="1">
         <v>2017.0</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="H103" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="I103" s="4" t="str">
+        <v>294</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="I103" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Piano performed by Matthew</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1">
-        <v>102.0</v>
+        <v>103.0</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E104" s="1">
         <v>2017.0</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="H104" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="I104" s="4" t="str">
+        <v>135</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="I104" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Piano performed by Matthew</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1">
-        <v>103.0</v>
+        <v>104.0</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E105" s="1">
         <v>2017.0</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H105" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="I105" s="4" t="str">
+        <v>135</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="I105" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Piano performed by Matthew</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1">
-        <v>104.0</v>
+        <v>105.0</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>312</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="C106" s="1"/>
       <c r="D106" s="1" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="E106" s="1">
         <v>2017.0</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>13</v>
+        <v>318</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H106" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="I106" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>Piano performed by Matthew</v>
+        <v>135</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1">
-        <v>105.0</v>
+        <v>106.0</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="C107" s="1"/>
+        <v>321</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="D107" s="1" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="E107" s="1">
         <v>2017.0</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>315</v>
+        <v>12</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H107" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="I107" s="1" t="s">
-        <v>317</v>
+        <v>13</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="I107" s="3" t="str">
+        <f>F107&amp;" performed by "&amp;(IF(D107="M","Matthew","Allie"))</f>
+        <v>Piano performed by Matthew</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1">
-        <v>106.0</v>
+        <v>107.0</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>189</v>
+        <v>324</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="E108" s="1">
         <v>2017.0</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>13</v>
+        <v>325</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H108" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="I108" s="4" t="str">
-        <f>F108&amp;" performed by "&amp;(IF(D108="M","Matthew","Allie"))</f>
-        <v>Piano performed by Matthew</v>
+        <v>135</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1">
-        <v>107.0</v>
+        <v>108.0</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="E109" s="1">
         <v>2017.0</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>322</v>
+        <v>12</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H109" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="I109" s="1" t="s">
-        <v>324</v>
+        <v>135</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="I109" s="3" t="str">
+        <f t="shared" ref="I109:I110" si="11">F109&amp;" performed by "&amp;(IF(D109="M","Matthew","Allie"))</f>
+        <v>Piano performed by Matthew</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1">
-        <v>108.0</v>
+        <v>109.0</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E110" s="1">
-        <v>2017.0</v>
+        <v>2018.0</v>
       </c>
       <c r="F110" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G110" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G110" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H110" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="I110" s="4" t="str">
-        <f t="shared" ref="I110:I111" si="11">F110&amp;" performed by "&amp;(IF(D110="M","Matthew","Allie"))</f>
+      <c r="H110" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="I110" s="3" t="str">
+        <f t="shared" si="11"/>
         <v>Piano performed by Matthew</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1">
-        <v>109.0</v>
+        <v>110.0</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="E111" s="1">
-        <v>2018.0</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>13</v>
+        <v>2012.0</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H111" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="I111" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>Piano performed by Matthew</v>
+        <v>57</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1">
-        <v>110.0</v>
+        <v>111.0</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>56</v>
+        <v>338</v>
       </c>
       <c r="E112" s="1">
-        <v>2012.0</v>
+        <v>2013.0</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H112" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="I112" s="2" t="s">
-        <v>333</v>
+        <v>57</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1">
-        <v>111.0</v>
+        <v>112.0</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>335</v>
+        <v>341</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>342</v>
       </c>
       <c r="E113" s="1">
-        <v>2013.0</v>
+        <v>2012.0</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H113" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="I113" s="2" t="s">
-        <v>337</v>
+        <v>57</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1">
-        <v>112.0</v>
+        <v>113.0</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>339</v>
+        <v>344</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>345</v>
       </c>
       <c r="E114" s="1">
-        <v>2012.0</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H114" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="I114" s="1" t="s">
-        <v>337</v>
+        <v>2004.0</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1">
-        <v>113.0</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>342</v>
+        <v>114.0</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="E115" s="1">
-        <v>2004.0</v>
-      </c>
-      <c r="H115" s="3" t="s">
-        <v>343</v>
+        <v>2014.0</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1">
-        <v>114.0</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>344</v>
+        <v>115.0</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E116" s="1">
         <v>2014.0</v>
       </c>
+      <c r="F116" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="G116" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="H116" s="3" t="s">
-        <v>346</v>
+        <v>350</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1">
-        <v>115.0</v>
+        <v>116.0</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>185</v>
+        <v>353</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>186</v>
+        <v>354</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>12</v>
+        <v>355</v>
       </c>
       <c r="E117" s="1">
         <v>2014.0</v>
       </c>
+      <c r="F117" s="1" t="s">
+        <v>356</v>
+      </c>
       <c r="G117" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="H117" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="I117" s="4" t="s">
-        <v>348</v>
+        <v>350</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1">
-        <v>116.0</v>
+        <v>117.0</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>349</v>
+        <v>180</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>350</v>
+        <v>181</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>351</v>
+        <v>11</v>
       </c>
       <c r="E118" s="1">
         <v>2014.0</v>
       </c>
+      <c r="F118" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="G118" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="H118" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="I118" s="3" t="s">
         <v>352</v>
-      </c>
-      <c r="I118" s="1" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1">
-        <v>117.0</v>
+        <v>118.0</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>179</v>
+        <v>360</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>12</v>
+        <v>361</v>
       </c>
       <c r="E119" s="1">
         <v>2014.0</v>
       </c>
+      <c r="F119" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="G119" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="H119" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="I119" s="4" t="s">
-        <v>348</v>
+        <v>350</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1">
-        <v>118.0</v>
+        <v>119.0</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>355</v>
+        <v>364</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>365</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>356</v>
+        <v>11</v>
       </c>
       <c r="E120" s="1">
-        <v>2014.0</v>
-      </c>
-      <c r="G120" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="H120" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="I120" s="2" t="s">
-        <v>358</v>
+        <v>2019.0</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1">
-        <v>119.0</v>
+        <v>120.0</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E121" s="1">
+        <v>2019.0</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="I121" s="3" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1">
-        <v>120.0</v>
+        <v>121.0</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E122" s="1">
+        <v>2019.0</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1">
-        <v>121.0</v>
+        <v>122.0</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E123" s="1">
+        <v>2019.0</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="I123" s="3" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1">
-        <v>122.0</v>
+        <v>123.0</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E124" s="1">
+        <v>2019.0</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="I124" s="3" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1">
-        <v>123.0</v>
+        <v>124.0</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E125" s="1">
+        <v>2019.0</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="I125" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1">
+        <v>125.0</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E126" s="1">
+        <v>2019.0</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="I126" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1">
+        <v>126.0</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E127" s="1">
+        <v>2019.0</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="I127" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1">
+        <v>127.0</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E128" s="1">
+        <v>2019.0</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="I128" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1">
+        <v>128.0</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E129" s="1">
+        <v>2019.0</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="I129" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1">
+        <v>129.0</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E130" s="1">
+        <v>2019.0</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="I130" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1">
+        <v>130.0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1">
+        <v>131.0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1">
+        <v>132.0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1">
+        <v>133.0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1">
+        <v>134.0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="H3"/>
-    <hyperlink r:id="rId2" ref="H4"/>
-    <hyperlink r:id="rId3" ref="H5"/>
-    <hyperlink r:id="rId4" ref="H6"/>
-    <hyperlink r:id="rId5" ref="H7"/>
-    <hyperlink r:id="rId6" ref="H8"/>
-    <hyperlink r:id="rId7" ref="H9"/>
-    <hyperlink r:id="rId8" ref="H10"/>
-    <hyperlink r:id="rId9" ref="H11"/>
-    <hyperlink r:id="rId10" ref="H12"/>
-    <hyperlink r:id="rId11" ref="H13"/>
-    <hyperlink r:id="rId12" ref="H14"/>
-    <hyperlink r:id="rId13" ref="H15"/>
-    <hyperlink r:id="rId14" ref="H16"/>
-    <hyperlink r:id="rId15" ref="H17"/>
-    <hyperlink r:id="rId16" ref="H18"/>
-    <hyperlink r:id="rId17" ref="H19"/>
-    <hyperlink r:id="rId18" ref="H20"/>
-    <hyperlink r:id="rId19" ref="H21"/>
-    <hyperlink r:id="rId20" ref="H22"/>
-    <hyperlink r:id="rId21" ref="H23"/>
-    <hyperlink r:id="rId22" ref="H24"/>
-    <hyperlink r:id="rId23" ref="H25"/>
-    <hyperlink r:id="rId24" ref="H26"/>
-    <hyperlink r:id="rId25" ref="H27"/>
-    <hyperlink r:id="rId26" ref="H28"/>
-    <hyperlink r:id="rId27" ref="H29"/>
-    <hyperlink r:id="rId28" ref="H30"/>
-    <hyperlink r:id="rId29" ref="H31"/>
-    <hyperlink r:id="rId30" ref="H32"/>
-    <hyperlink r:id="rId31" ref="H33"/>
-    <hyperlink r:id="rId32" ref="H34"/>
-    <hyperlink r:id="rId33" ref="H35"/>
-    <hyperlink r:id="rId34" ref="H36"/>
-    <hyperlink r:id="rId35" ref="H37"/>
-    <hyperlink r:id="rId36" ref="H38"/>
-    <hyperlink r:id="rId37" ref="H39"/>
-    <hyperlink r:id="rId38" ref="H40"/>
-    <hyperlink r:id="rId39" ref="H41"/>
-    <hyperlink r:id="rId40" ref="H42"/>
-    <hyperlink r:id="rId41" ref="H43"/>
-    <hyperlink r:id="rId42" ref="H44"/>
-    <hyperlink r:id="rId43" ref="H45"/>
-    <hyperlink r:id="rId44" ref="H46"/>
-    <hyperlink r:id="rId45" ref="H47"/>
-    <hyperlink r:id="rId46" ref="H48"/>
-    <hyperlink r:id="rId47" ref="H49"/>
-    <hyperlink r:id="rId48" ref="H50"/>
-    <hyperlink r:id="rId49" ref="H51"/>
-    <hyperlink r:id="rId50" ref="H52"/>
-    <hyperlink r:id="rId51" ref="H53"/>
-    <hyperlink r:id="rId52" ref="H54"/>
-    <hyperlink r:id="rId53" ref="H55"/>
-    <hyperlink r:id="rId54" ref="H56"/>
-    <hyperlink r:id="rId55" ref="H57"/>
-    <hyperlink r:id="rId56" ref="H58"/>
-    <hyperlink r:id="rId57" ref="H59"/>
-    <hyperlink r:id="rId58" ref="H60"/>
-    <hyperlink r:id="rId59" ref="H61"/>
-    <hyperlink r:id="rId60" ref="H62"/>
-    <hyperlink r:id="rId61" ref="H63"/>
-    <hyperlink r:id="rId62" ref="H64"/>
-    <hyperlink r:id="rId63" ref="H65"/>
-    <hyperlink r:id="rId64" ref="H66"/>
-    <hyperlink r:id="rId65" ref="H67"/>
-    <hyperlink r:id="rId66" ref="H68"/>
-    <hyperlink r:id="rId67" ref="H69"/>
-    <hyperlink r:id="rId68" ref="H70"/>
-    <hyperlink r:id="rId69" ref="H71"/>
-    <hyperlink r:id="rId70" ref="H72"/>
-    <hyperlink r:id="rId71" ref="H73"/>
-    <hyperlink r:id="rId72" ref="H74"/>
-    <hyperlink r:id="rId73" ref="H75"/>
-    <hyperlink r:id="rId74" ref="H76"/>
-    <hyperlink r:id="rId75" ref="H77"/>
-    <hyperlink r:id="rId76" ref="H78"/>
-    <hyperlink r:id="rId77" ref="H79"/>
-    <hyperlink r:id="rId78" ref="H80"/>
-    <hyperlink r:id="rId79" ref="H81"/>
-    <hyperlink r:id="rId80" ref="H82"/>
-    <hyperlink r:id="rId81" ref="H83"/>
-    <hyperlink r:id="rId82" ref="H84"/>
-    <hyperlink r:id="rId83" ref="H85"/>
-    <hyperlink r:id="rId84" ref="H86"/>
-    <hyperlink r:id="rId85" ref="H87"/>
-    <hyperlink r:id="rId86" ref="H88"/>
-    <hyperlink r:id="rId87" ref="H89"/>
-    <hyperlink r:id="rId88" ref="H90"/>
-    <hyperlink r:id="rId89" ref="H91"/>
-    <hyperlink r:id="rId90" ref="H92"/>
-    <hyperlink r:id="rId91" ref="H93"/>
-    <hyperlink r:id="rId92" ref="H94"/>
-    <hyperlink r:id="rId93" ref="H95"/>
-    <hyperlink r:id="rId94" ref="H96"/>
-    <hyperlink r:id="rId95" ref="H97"/>
-    <hyperlink r:id="rId96" ref="H98"/>
-    <hyperlink r:id="rId97" ref="H99"/>
-    <hyperlink r:id="rId98" ref="H100"/>
-    <hyperlink r:id="rId99" ref="H101"/>
-    <hyperlink r:id="rId100" ref="H102"/>
-    <hyperlink r:id="rId101" ref="H103"/>
-    <hyperlink r:id="rId102" ref="H104"/>
-    <hyperlink r:id="rId103" ref="H105"/>
-    <hyperlink r:id="rId104" ref="H106"/>
-    <hyperlink r:id="rId105" ref="H107"/>
-    <hyperlink r:id="rId106" ref="H108"/>
-    <hyperlink r:id="rId107" ref="H109"/>
-    <hyperlink r:id="rId108" ref="H110"/>
-    <hyperlink r:id="rId109" ref="H111"/>
-    <hyperlink r:id="rId110" ref="H112"/>
-    <hyperlink r:id="rId111" ref="H113"/>
-    <hyperlink r:id="rId112" ref="H114"/>
-    <hyperlink r:id="rId113" ref="H115"/>
-    <hyperlink r:id="rId114" ref="H116"/>
-    <hyperlink r:id="rId115" ref="H117"/>
-    <hyperlink r:id="rId116" ref="H118"/>
-    <hyperlink r:id="rId117" ref="H119"/>
-    <hyperlink r:id="rId118" ref="H120"/>
+    <hyperlink r:id="rId1" ref="H2"/>
+    <hyperlink r:id="rId2" ref="H3"/>
+    <hyperlink r:id="rId3" ref="H4"/>
+    <hyperlink r:id="rId4" ref="H5"/>
+    <hyperlink r:id="rId5" ref="H6"/>
+    <hyperlink r:id="rId6" ref="H7"/>
+    <hyperlink r:id="rId7" ref="H8"/>
+    <hyperlink r:id="rId8" ref="H9"/>
+    <hyperlink r:id="rId9" ref="H10"/>
+    <hyperlink r:id="rId10" ref="H11"/>
+    <hyperlink r:id="rId11" ref="H12"/>
+    <hyperlink r:id="rId12" ref="H13"/>
+    <hyperlink r:id="rId13" ref="H14"/>
+    <hyperlink r:id="rId14" ref="H15"/>
+    <hyperlink r:id="rId15" ref="H16"/>
+    <hyperlink r:id="rId16" ref="H17"/>
+    <hyperlink r:id="rId17" ref="H18"/>
+    <hyperlink r:id="rId18" ref="H19"/>
+    <hyperlink r:id="rId19" ref="H20"/>
+    <hyperlink r:id="rId20" ref="H21"/>
+    <hyperlink r:id="rId21" ref="H22"/>
+    <hyperlink r:id="rId22" ref="H23"/>
+    <hyperlink r:id="rId23" ref="H24"/>
+    <hyperlink r:id="rId24" ref="H25"/>
+    <hyperlink r:id="rId25" ref="H26"/>
+    <hyperlink r:id="rId26" ref="H27"/>
+    <hyperlink r:id="rId27" ref="H28"/>
+    <hyperlink r:id="rId28" ref="H29"/>
+    <hyperlink r:id="rId29" ref="H30"/>
+    <hyperlink r:id="rId30" ref="H31"/>
+    <hyperlink r:id="rId31" ref="H32"/>
+    <hyperlink r:id="rId32" ref="H33"/>
+    <hyperlink r:id="rId33" ref="H34"/>
+    <hyperlink r:id="rId34" ref="H35"/>
+    <hyperlink r:id="rId35" ref="H36"/>
+    <hyperlink r:id="rId36" ref="H37"/>
+    <hyperlink r:id="rId37" ref="H38"/>
+    <hyperlink r:id="rId38" ref="H39"/>
+    <hyperlink r:id="rId39" ref="H40"/>
+    <hyperlink r:id="rId40" ref="H41"/>
+    <hyperlink r:id="rId41" ref="H42"/>
+    <hyperlink r:id="rId42" ref="H43"/>
+    <hyperlink r:id="rId43" ref="H44"/>
+    <hyperlink r:id="rId44" ref="H45"/>
+    <hyperlink r:id="rId45" ref="H46"/>
+    <hyperlink r:id="rId46" ref="H47"/>
+    <hyperlink r:id="rId47" ref="H48"/>
+    <hyperlink r:id="rId48" ref="H49"/>
+    <hyperlink r:id="rId49" ref="H50"/>
+    <hyperlink r:id="rId50" ref="H51"/>
+    <hyperlink r:id="rId51" ref="H52"/>
+    <hyperlink r:id="rId52" ref="H53"/>
+    <hyperlink r:id="rId53" ref="H54"/>
+    <hyperlink r:id="rId54" ref="H55"/>
+    <hyperlink r:id="rId55" ref="H56"/>
+    <hyperlink r:id="rId56" ref="H57"/>
+    <hyperlink r:id="rId57" ref="H58"/>
+    <hyperlink r:id="rId58" ref="H59"/>
+    <hyperlink r:id="rId59" ref="H60"/>
+    <hyperlink r:id="rId60" ref="H61"/>
+    <hyperlink r:id="rId61" ref="H62"/>
+    <hyperlink r:id="rId62" ref="H63"/>
+    <hyperlink r:id="rId63" ref="H64"/>
+    <hyperlink r:id="rId64" ref="H65"/>
+    <hyperlink r:id="rId65" ref="H66"/>
+    <hyperlink r:id="rId66" ref="H67"/>
+    <hyperlink r:id="rId67" ref="H68"/>
+    <hyperlink r:id="rId68" ref="H69"/>
+    <hyperlink r:id="rId69" ref="H70"/>
+    <hyperlink r:id="rId70" ref="H71"/>
+    <hyperlink r:id="rId71" ref="H72"/>
+    <hyperlink r:id="rId72" ref="H73"/>
+    <hyperlink r:id="rId73" ref="H74"/>
+    <hyperlink r:id="rId74" ref="H75"/>
+    <hyperlink r:id="rId75" ref="H76"/>
+    <hyperlink r:id="rId76" ref="H77"/>
+    <hyperlink r:id="rId77" ref="H78"/>
+    <hyperlink r:id="rId78" ref="H79"/>
+    <hyperlink r:id="rId79" ref="H80"/>
+    <hyperlink r:id="rId80" ref="H81"/>
+    <hyperlink r:id="rId81" ref="H82"/>
+    <hyperlink r:id="rId82" ref="H83"/>
+    <hyperlink r:id="rId83" ref="H84"/>
+    <hyperlink r:id="rId84" ref="H85"/>
+    <hyperlink r:id="rId85" ref="H86"/>
+    <hyperlink r:id="rId86" ref="H87"/>
+    <hyperlink r:id="rId87" ref="H88"/>
+    <hyperlink r:id="rId88" ref="H89"/>
+    <hyperlink r:id="rId89" ref="H90"/>
+    <hyperlink r:id="rId90" ref="H91"/>
+    <hyperlink r:id="rId91" ref="H92"/>
+    <hyperlink r:id="rId92" ref="H93"/>
+    <hyperlink r:id="rId93" ref="H94"/>
+    <hyperlink r:id="rId94" ref="H95"/>
+    <hyperlink r:id="rId95" ref="H96"/>
+    <hyperlink r:id="rId96" ref="H97"/>
+    <hyperlink r:id="rId97" ref="H98"/>
+    <hyperlink r:id="rId98" ref="H99"/>
+    <hyperlink r:id="rId99" ref="H100"/>
+    <hyperlink r:id="rId100" ref="H101"/>
+    <hyperlink r:id="rId101" ref="H102"/>
+    <hyperlink r:id="rId102" ref="H103"/>
+    <hyperlink r:id="rId103" ref="H104"/>
+    <hyperlink r:id="rId104" ref="H105"/>
+    <hyperlink r:id="rId105" ref="H106"/>
+    <hyperlink r:id="rId106" ref="H107"/>
+    <hyperlink r:id="rId107" ref="H108"/>
+    <hyperlink r:id="rId108" ref="H109"/>
+    <hyperlink r:id="rId109" ref="H110"/>
+    <hyperlink r:id="rId110" ref="H111"/>
+    <hyperlink r:id="rId111" ref="H112"/>
+    <hyperlink r:id="rId112" ref="H113"/>
+    <hyperlink r:id="rId113" ref="H114"/>
+    <hyperlink r:id="rId114" ref="H115"/>
+    <hyperlink r:id="rId115" ref="H116"/>
+    <hyperlink r:id="rId116" ref="H117"/>
+    <hyperlink r:id="rId117" ref="H118"/>
+    <hyperlink r:id="rId118" ref="H119"/>
+    <hyperlink r:id="rId119" ref="H120"/>
+    <hyperlink r:id="rId120" ref="H121"/>
+    <hyperlink r:id="rId121" ref="H122"/>
+    <hyperlink r:id="rId122" ref="H123"/>
+    <hyperlink r:id="rId123" ref="H124"/>
+    <hyperlink r:id="rId124" ref="H125"/>
+    <hyperlink r:id="rId125" ref="H126"/>
+    <hyperlink r:id="rId126" ref="H127"/>
+    <hyperlink r:id="rId127" ref="H128"/>
+    <hyperlink r:id="rId128" ref="H129"/>
+    <hyperlink r:id="rId129" ref="H130"/>
   </hyperlinks>
-  <drawing r:id="rId119"/>
+  <drawing r:id="rId130"/>
 </worksheet>
 </file>
--- a/videos/Website videos.xlsx
+++ b/videos/Website videos.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="402">
   <si>
     <t>#</t>
   </si>
@@ -244,7 +244,7 @@
     <t>Georg Benda</t>
   </si>
   <si>
-    <t>Piano, Best of</t>
+    <t>Best of</t>
   </si>
   <si>
     <t>https://youtu.be/4oPnFsYPNX8</t>
@@ -328,9 +328,6 @@
     <t>We Wish You A Merry Christmas</t>
   </si>
   <si>
-    <t>Traditional</t>
-  </si>
-  <si>
     <t>Christmas, Best of,</t>
   </si>
   <si>
@@ -1057,15 +1054,12 @@
     <t>The Grand Entrance</t>
   </si>
   <si>
-    <t>Nannie's birthday</t>
+    <t>Nannie's birthday, Live,</t>
   </si>
   <si>
     <t>https://youtu.be/tBK2iplfs7w</t>
   </si>
   <si>
-    <t>Nannie's birthday, Live,</t>
-  </si>
-  <si>
     <t>https://youtu.be/i8f0oKvUsvM</t>
   </si>
   <si>
@@ -1190,6 +1184,39 @@
   </si>
   <si>
     <t>https://youtu.be/cB-A8gxaw98</t>
+  </si>
+  <si>
+    <t>Law Collection Trailer</t>
+  </si>
+  <si>
+    <t>https://youtu.be/68C1X1wEAZc</t>
+  </si>
+  <si>
+    <t>Hallelujah</t>
+  </si>
+  <si>
+    <t>Leonard Cohen</t>
+  </si>
+  <si>
+    <t>https://youtu.be/IfWMiGK0p8E</t>
+  </si>
+  <si>
+    <t>Tears in Heaven</t>
+  </si>
+  <si>
+    <t>Eric Clapton</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MtB5VL1F4oE</t>
+  </si>
+  <si>
+    <t>With You</t>
+  </si>
+  <si>
+    <t>Brian Mazzaferri</t>
+  </si>
+  <si>
+    <t>https://youtu.be/4nzEnXQj2Fc</t>
   </si>
 </sst>
 </file>
@@ -2066,6 +2093,9 @@
         <v>2010.0</v>
       </c>
       <c r="F21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>77</v>
       </c>
       <c r="H21" s="2" t="s">
@@ -2073,7 +2103,7 @@
       </c>
       <c r="I21" s="3" t="str">
         <f>F21&amp;" performed by "&amp;(IF(D21="M","Matthew","Allie"))</f>
-        <v>Piano, Best of performed by Matthew</v>
+        <v>Piano performed by Matthew</v>
       </c>
     </row>
     <row r="22">
@@ -2308,9 +2338,6 @@
       <c r="B30" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="D30" s="1" t="s">
         <v>55</v>
       </c>
@@ -2321,13 +2348,13 @@
         <v>12</v>
       </c>
       <c r="G30" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H30" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="I30" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="31">
@@ -2335,10 +2362,10 @@
         <v>30.0</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>11</v>
@@ -2350,7 +2377,7 @@
         <v>84</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I31" s="3" t="str">
         <f t="shared" ref="I31:I32" si="5">F31&amp;" performed by "&amp;(IF(D31="M","Matthew","Allie"))</f>
@@ -2362,10 +2389,10 @@
         <v>31.0</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>11</v>
@@ -2377,7 +2404,7 @@
         <v>12</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I32" s="3" t="str">
         <f t="shared" si="5"/>
@@ -2389,7 +2416,7 @@
         <v>32.0</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
@@ -2405,7 +2432,7 @@
         <v>57</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>82</v>
@@ -2416,7 +2443,7 @@
         <v>33.0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>23</v>
@@ -2431,7 +2458,7 @@
         <v>12</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I34" s="3" t="str">
         <f t="shared" ref="I34:I43" si="6">F34&amp;" performed by "&amp;(IF(D34="M","Matthew","Allie"))</f>
@@ -2443,10 +2470,10 @@
         <v>34.0</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>11</v>
@@ -2458,7 +2485,7 @@
         <v>84</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I35" s="3" t="str">
         <f t="shared" si="6"/>
@@ -2470,10 +2497,10 @@
         <v>35.0</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>11</v>
@@ -2485,7 +2512,7 @@
         <v>12</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I36" s="3" t="str">
         <f t="shared" si="6"/>
@@ -2497,10 +2524,10 @@
         <v>36.0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>11</v>
@@ -2512,7 +2539,7 @@
         <v>12</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I37" s="3" t="str">
         <f t="shared" si="6"/>
@@ -2524,10 +2551,10 @@
         <v>37.0</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>11</v>
@@ -2539,7 +2566,7 @@
         <v>12</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I38" s="3" t="str">
         <f t="shared" si="6"/>
@@ -2551,10 +2578,10 @@
         <v>38.0</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>11</v>
@@ -2566,7 +2593,7 @@
         <v>12</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I39" s="3" t="str">
         <f t="shared" si="6"/>
@@ -2578,10 +2605,10 @@
         <v>39.0</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>11</v>
@@ -2593,10 +2620,10 @@
         <v>12</v>
       </c>
       <c r="G40" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H40" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="I40" s="3" t="str">
         <f t="shared" si="6"/>
@@ -2608,10 +2635,10 @@
         <v>40.0</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>11</v>
@@ -2623,7 +2650,7 @@
         <v>12</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I41" s="3" t="str">
         <f t="shared" si="6"/>
@@ -2635,10 +2662,10 @@
         <v>41.0</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>11</v>
@@ -2653,7 +2680,7 @@
         <v>88</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I42" s="3" t="str">
         <f t="shared" si="6"/>
@@ -2665,10 +2692,10 @@
         <v>42.0</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>11</v>
@@ -2680,7 +2707,7 @@
         <v>84</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I43" s="3" t="str">
         <f t="shared" si="6"/>
@@ -2692,10 +2719,10 @@
         <v>43.0</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>11</v>
@@ -2707,7 +2734,7 @@
         <v>80</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>82</v>
@@ -2718,10 +2745,10 @@
         <v>44.0</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>11</v>
@@ -2733,10 +2760,10 @@
         <v>12</v>
       </c>
       <c r="G45" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H45" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="I45" s="3" t="str">
         <f t="shared" ref="I45:I46" si="7">F45&amp;" performed by "&amp;(IF(D45="M","Matthew","Allie"))</f>
@@ -2748,10 +2775,10 @@
         <v>45.0</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>11</v>
@@ -2763,10 +2790,10 @@
         <v>12</v>
       </c>
       <c r="G46" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H46" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="I46" s="3" t="str">
         <f t="shared" si="7"/>
@@ -2778,7 +2805,7 @@
         <v>46.0</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
@@ -2792,7 +2819,7 @@
         <v>57</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="48">
@@ -2800,10 +2827,10 @@
         <v>47.0</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>11</v>
@@ -2818,7 +2845,7 @@
         <v>65</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I48" s="3" t="str">
         <f t="shared" ref="I48:I74" si="8">F48&amp;" performed by "&amp;(IF(D48="M","Matthew","Allie"))</f>
@@ -2830,10 +2857,10 @@
         <v>48.0</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>11</v>
@@ -2845,7 +2872,7 @@
         <v>12</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I49" s="3" t="str">
         <f t="shared" si="8"/>
@@ -2857,10 +2884,10 @@
         <v>49.0</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>11</v>
@@ -2872,7 +2899,7 @@
         <v>12</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I50" s="3" t="str">
         <f t="shared" si="8"/>
@@ -2884,7 +2911,7 @@
         <v>50.0</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>94</v>
@@ -2902,7 +2929,7 @@
         <v>102</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I51" s="3" t="str">
         <f t="shared" si="8"/>
@@ -2914,10 +2941,10 @@
         <v>51.0</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>11</v>
@@ -2932,7 +2959,7 @@
         <v>13</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I52" s="3" t="str">
         <f t="shared" si="8"/>
@@ -2944,10 +2971,10 @@
         <v>52.0</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>11</v>
@@ -2959,10 +2986,10 @@
         <v>12</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I53" s="3" t="str">
         <f t="shared" si="8"/>
@@ -2974,10 +3001,10 @@
         <v>53.0</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>11</v>
@@ -2989,10 +3016,10 @@
         <v>12</v>
       </c>
       <c r="G54" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H54" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="I54" s="3" t="str">
         <f t="shared" si="8"/>
@@ -3004,10 +3031,10 @@
         <v>54.0</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>11</v>
@@ -3019,7 +3046,7 @@
         <v>12</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I55" s="3" t="str">
         <f t="shared" si="8"/>
@@ -3031,10 +3058,10 @@
         <v>55.0</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>11</v>
@@ -3046,10 +3073,10 @@
         <v>12</v>
       </c>
       <c r="G56" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H56" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="I56" s="3" t="str">
         <f t="shared" si="8"/>
@@ -3061,10 +3088,10 @@
         <v>56.0</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>11</v>
@@ -3076,7 +3103,7 @@
         <v>12</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I57" s="3" t="str">
         <f t="shared" si="8"/>
@@ -3088,10 +3115,10 @@
         <v>57.0</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>11</v>
@@ -3106,7 +3133,7 @@
         <v>102</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I58" s="3" t="str">
         <f t="shared" si="8"/>
@@ -3118,10 +3145,10 @@
         <v>58.0</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>11</v>
@@ -3136,7 +3163,7 @@
         <v>52</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I59" s="3" t="str">
         <f t="shared" si="8"/>
@@ -3148,10 +3175,10 @@
         <v>59.0</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>194</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>11</v>
@@ -3166,7 +3193,7 @@
         <v>52</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I60" s="3" t="str">
         <f t="shared" si="8"/>
@@ -3178,10 +3205,10 @@
         <v>60.0</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>11</v>
@@ -3196,7 +3223,7 @@
         <v>13</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I61" s="3" t="str">
         <f t="shared" si="8"/>
@@ -3208,10 +3235,10 @@
         <v>61.0</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>200</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>11</v>
@@ -3223,10 +3250,10 @@
         <v>12</v>
       </c>
       <c r="G62" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H62" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="I62" s="3" t="str">
         <f t="shared" si="8"/>
@@ -3256,7 +3283,7 @@
         <v>19</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I63" s="3" t="str">
         <f t="shared" si="8"/>
@@ -3268,10 +3295,10 @@
         <v>63.0</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>11</v>
@@ -3283,7 +3310,7 @@
         <v>12</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I64" s="3" t="str">
         <f t="shared" si="8"/>
@@ -3295,10 +3322,10 @@
         <v>64.0</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>11</v>
@@ -3313,7 +3340,7 @@
         <v>65</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I65" s="3" t="str">
         <f t="shared" si="8"/>
@@ -3325,10 +3352,10 @@
         <v>65.0</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>11</v>
@@ -3343,7 +3370,7 @@
         <v>19</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I66" s="3" t="str">
         <f t="shared" si="8"/>
@@ -3355,10 +3382,10 @@
         <v>66.0</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>11</v>
@@ -3370,7 +3397,7 @@
         <v>12</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I67" s="3" t="str">
         <f t="shared" si="8"/>
@@ -3382,10 +3409,10 @@
         <v>67.0</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>11</v>
@@ -3397,10 +3424,10 @@
         <v>12</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I68" s="3" t="str">
         <f t="shared" si="8"/>
@@ -3412,10 +3439,10 @@
         <v>68.0</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>11</v>
@@ -3427,7 +3454,7 @@
         <v>12</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I69" s="3" t="str">
         <f t="shared" si="8"/>
@@ -3439,10 +3466,10 @@
         <v>69.0</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>11</v>
@@ -3454,7 +3481,7 @@
         <v>12</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I70" s="3" t="str">
         <f t="shared" si="8"/>
@@ -3466,10 +3493,10 @@
         <v>70.0</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>11</v>
@@ -3484,7 +3511,7 @@
         <v>19</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I71" s="3" t="str">
         <f t="shared" si="8"/>
@@ -3496,10 +3523,10 @@
         <v>71.0</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>11</v>
@@ -3511,7 +3538,7 @@
         <v>12</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I72" s="3" t="str">
         <f t="shared" si="8"/>
@@ -3523,10 +3550,10 @@
         <v>72.0</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>11</v>
@@ -3535,13 +3562,13 @@
         <v>2014.0</v>
       </c>
       <c r="F73" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H73" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>227</v>
       </c>
       <c r="I73" s="3" t="str">
         <f t="shared" si="8"/>
@@ -3553,10 +3580,10 @@
         <v>73.0</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>11</v>
@@ -3568,10 +3595,10 @@
         <v>12</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I74" s="3" t="str">
         <f t="shared" si="8"/>
@@ -3583,7 +3610,7 @@
         <v>74.0</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1" t="s">
@@ -3597,10 +3624,10 @@
         <v>57</v>
       </c>
       <c r="H75" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="I75" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="76">
@@ -3608,10 +3635,7 @@
         <v>75.0</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>105</v>
+        <v>232</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>11</v>
@@ -3626,7 +3650,7 @@
         <v>19</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I76" s="3" t="str">
         <f t="shared" ref="I76:I98" si="9">F76&amp;" performed by "&amp;(IF(D76="M","Matthew","Allie"))</f>
@@ -3638,10 +3662,10 @@
         <v>76.0</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>236</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>11</v>
@@ -3656,7 +3680,7 @@
         <v>19</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I77" s="3" t="str">
         <f t="shared" si="9"/>
@@ -3668,10 +3692,7 @@
         <v>77.0</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>105</v>
+        <v>237</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>11</v>
@@ -3686,7 +3707,7 @@
         <v>19</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I78" s="3" t="str">
         <f t="shared" si="9"/>
@@ -3698,10 +3719,10 @@
         <v>78.0</v>
       </c>
       <c r="B79" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>241</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>11</v>
@@ -3713,7 +3734,7 @@
         <v>12</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I79" s="3" t="str">
         <f t="shared" si="9"/>
@@ -3725,10 +3746,10 @@
         <v>79.0</v>
       </c>
       <c r="B80" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>11</v>
@@ -3740,7 +3761,7 @@
         <v>12</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I80" s="3" t="str">
         <f t="shared" si="9"/>
@@ -3752,10 +3773,10 @@
         <v>80.0</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>11</v>
@@ -3770,7 +3791,7 @@
         <v>102</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I81" s="3" t="str">
         <f t="shared" si="9"/>
@@ -3782,10 +3803,10 @@
         <v>81.0</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>11</v>
@@ -3800,7 +3821,7 @@
         <v>65</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I82" s="3" t="str">
         <f t="shared" si="9"/>
@@ -3812,10 +3833,10 @@
         <v>82.0</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>11</v>
@@ -3827,10 +3848,10 @@
         <v>12</v>
       </c>
       <c r="G83" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H83" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>255</v>
       </c>
       <c r="I83" s="3" t="str">
         <f t="shared" si="9"/>
@@ -3842,10 +3863,10 @@
         <v>83.0</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>11</v>
@@ -3857,10 +3878,10 @@
         <v>12</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I84" s="3" t="str">
         <f t="shared" si="9"/>
@@ -3872,10 +3893,10 @@
         <v>84.0</v>
       </c>
       <c r="B85" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>259</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>11</v>
@@ -3887,7 +3908,7 @@
         <v>12</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I85" s="3" t="str">
         <f t="shared" si="9"/>
@@ -3899,10 +3920,10 @@
         <v>85.0</v>
       </c>
       <c r="B86" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>11</v>
@@ -3914,10 +3935,10 @@
         <v>12</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I86" s="3" t="str">
         <f t="shared" si="9"/>
@@ -3929,10 +3950,10 @@
         <v>86.0</v>
       </c>
       <c r="B87" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>265</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>11</v>
@@ -3944,7 +3965,7 @@
         <v>12</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I87" s="3" t="str">
         <f t="shared" si="9"/>
@@ -3956,10 +3977,10 @@
         <v>87.0</v>
       </c>
       <c r="B88" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>11</v>
@@ -3971,10 +3992,10 @@
         <v>12</v>
       </c>
       <c r="G88" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H88" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>268</v>
       </c>
       <c r="I88" s="3" t="str">
         <f t="shared" si="9"/>
@@ -3986,10 +4007,10 @@
         <v>88.0</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>11</v>
@@ -4001,10 +4022,10 @@
         <v>12</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I89" s="3" t="str">
         <f t="shared" si="9"/>
@@ -4016,10 +4037,10 @@
         <v>89.0</v>
       </c>
       <c r="B90" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>11</v>
@@ -4031,10 +4052,10 @@
         <v>12</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I90" s="3" t="str">
         <f t="shared" si="9"/>
@@ -4046,10 +4067,10 @@
         <v>90.0</v>
       </c>
       <c r="B91" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>11</v>
@@ -4064,7 +4085,7 @@
         <v>65</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I91" s="3" t="str">
         <f t="shared" si="9"/>
@@ -4076,10 +4097,10 @@
         <v>91.0</v>
       </c>
       <c r="B92" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>278</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>11</v>
@@ -4091,7 +4112,7 @@
         <v>12</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I92" s="3" t="str">
         <f t="shared" si="9"/>
@@ -4103,10 +4124,10 @@
         <v>92.0</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>11</v>
@@ -4115,13 +4136,13 @@
         <v>2015.0</v>
       </c>
       <c r="F93" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H93" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H93" s="2" t="s">
-        <v>282</v>
       </c>
       <c r="I93" s="3" t="str">
         <f t="shared" si="9"/>
@@ -4133,10 +4154,10 @@
         <v>93.0</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>11</v>
@@ -4145,13 +4166,13 @@
         <v>2015.0</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>65</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I94" s="3" t="str">
         <f t="shared" si="9"/>
@@ -4163,10 +4184,10 @@
         <v>94.0</v>
       </c>
       <c r="B95" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>286</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>11</v>
@@ -4178,10 +4199,10 @@
         <v>12</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I95" s="3" t="str">
         <f t="shared" si="9"/>
@@ -4193,10 +4214,10 @@
         <v>95.0</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>11</v>
@@ -4208,10 +4229,10 @@
         <v>12</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I96" s="3" t="str">
         <f t="shared" si="9"/>
@@ -4223,7 +4244,7 @@
         <v>96.0</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>94</v>
@@ -4241,7 +4262,7 @@
         <v>13</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I97" s="3" t="str">
         <f t="shared" si="9"/>
@@ -4253,10 +4274,10 @@
         <v>97.0</v>
       </c>
       <c r="B98" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>11</v>
@@ -4268,10 +4289,10 @@
         <v>12</v>
       </c>
       <c r="G98" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="H98" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>295</v>
       </c>
       <c r="I98" s="3" t="str">
         <f t="shared" si="9"/>
@@ -4283,10 +4304,10 @@
         <v>98.0</v>
       </c>
       <c r="B99" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>297</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>55</v>
@@ -4295,16 +4316,16 @@
         <v>2016.0</v>
       </c>
       <c r="F99" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H99" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="G99" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H99" s="2" t="s">
+      <c r="I99" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="I99" s="1" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="100">
@@ -4312,10 +4333,10 @@
         <v>99.0</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>55</v>
@@ -4324,16 +4345,16 @@
         <v>2016.0</v>
       </c>
       <c r="F100" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H100" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="G100" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H100" s="2" t="s">
+      <c r="I100" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="101">
@@ -4341,7 +4362,7 @@
         <v>100.0</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>94</v>
@@ -4359,7 +4380,7 @@
         <v>13</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I101" s="3" t="str">
         <f t="shared" ref="I101:I105" si="10">F101&amp;" performed by "&amp;(IF(D101="M","Matthew","Allie"))</f>
@@ -4371,10 +4392,10 @@
         <v>101.0</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>11</v>
@@ -4386,10 +4407,10 @@
         <v>12</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I102" s="3" t="str">
         <f t="shared" si="10"/>
@@ -4401,10 +4422,10 @@
         <v>102.0</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>11</v>
@@ -4416,10 +4437,10 @@
         <v>12</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I103" s="3" t="str">
         <f t="shared" si="10"/>
@@ -4431,10 +4452,10 @@
         <v>103.0</v>
       </c>
       <c r="B104" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>312</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>11</v>
@@ -4446,10 +4467,10 @@
         <v>12</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I104" s="3" t="str">
         <f t="shared" si="10"/>
@@ -4461,10 +4482,10 @@
         <v>104.0</v>
       </c>
       <c r="B105" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>315</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>11</v>
@@ -4476,10 +4497,10 @@
         <v>12</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I105" s="3" t="str">
         <f t="shared" si="10"/>
@@ -4491,7 +4512,7 @@
         <v>105.0</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C106" s="1"/>
       <c r="D106" s="1" t="s">
@@ -4501,16 +4522,16 @@
         <v>2017.0</v>
       </c>
       <c r="F106" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H106" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="G106" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H106" s="2" t="s">
+      <c r="I106" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="I106" s="1" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="107">
@@ -4518,10 +4539,10 @@
         <v>106.0</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>11</v>
@@ -4536,7 +4557,7 @@
         <v>13</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I107" s="3" t="str">
         <f>F107&amp;" performed by "&amp;(IF(D107="M","Matthew","Allie"))</f>
@@ -4548,10 +4569,10 @@
         <v>107.0</v>
       </c>
       <c r="B108" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>324</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>55</v>
@@ -4560,16 +4581,16 @@
         <v>2017.0</v>
       </c>
       <c r="F108" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H108" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="G108" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H108" s="2" t="s">
+      <c r="I108" s="1" t="s">
         <v>326</v>
-      </c>
-      <c r="I108" s="1" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="109">
@@ -4577,10 +4598,10 @@
         <v>108.0</v>
       </c>
       <c r="B109" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>329</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>11</v>
@@ -4592,10 +4613,10 @@
         <v>12</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I109" s="3" t="str">
         <f t="shared" ref="I109:I110" si="11">F109&amp;" performed by "&amp;(IF(D109="M","Matthew","Allie"))</f>
@@ -4607,10 +4628,10 @@
         <v>109.0</v>
       </c>
       <c r="B110" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>332</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>11</v>
@@ -4625,7 +4646,7 @@
         <v>13</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I110" s="3" t="str">
         <f t="shared" si="11"/>
@@ -4637,7 +4658,7 @@
         <v>110.0</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>55</v>
@@ -4649,10 +4670,10 @@
         <v>57</v>
       </c>
       <c r="H111" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="I111" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="I111" s="1" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="112">
@@ -4660,10 +4681,10 @@
         <v>111.0</v>
       </c>
       <c r="B112" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D112" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>338</v>
       </c>
       <c r="E112" s="1">
         <v>2013.0</v>
@@ -4672,10 +4693,10 @@
         <v>57</v>
       </c>
       <c r="H112" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="I112" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="I112" s="1" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="113">
@@ -4683,10 +4704,10 @@
         <v>112.0</v>
       </c>
       <c r="B113" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D113" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>342</v>
       </c>
       <c r="E113" s="1">
         <v>2012.0</v>
@@ -4695,10 +4716,10 @@
         <v>57</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="114">
@@ -4706,16 +4727,19 @@
         <v>113.0</v>
       </c>
       <c r="B114" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D114" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>345</v>
       </c>
       <c r="E114" s="1">
         <v>2004.0</v>
       </c>
+      <c r="G114" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="H114" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="115">
@@ -4723,16 +4747,16 @@
         <v>114.0</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E115" s="1">
         <v>2014.0</v>
       </c>
       <c r="G115" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="H115" s="2" t="s">
         <v>348</v>
-      </c>
-      <c r="H115" s="2" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="116">
@@ -4740,10 +4764,10 @@
         <v>115.0</v>
       </c>
       <c r="B116" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>11</v>
@@ -4755,13 +4779,13 @@
         <v>12</v>
       </c>
       <c r="G116" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="I116" s="3" t="s">
         <v>350</v>
-      </c>
-      <c r="H116" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="I116" s="3" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="117">
@@ -4769,28 +4793,28 @@
         <v>116.0</v>
       </c>
       <c r="B117" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D117" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>355</v>
       </c>
       <c r="E117" s="1">
         <v>2014.0</v>
       </c>
       <c r="F117" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="I117" s="1" t="s">
         <v>356</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="H117" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="I117" s="1" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="118">
@@ -4798,10 +4822,10 @@
         <v>117.0</v>
       </c>
       <c r="B118" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>11</v>
@@ -4813,13 +4837,13 @@
         <v>12</v>
       </c>
       <c r="G118" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="I118" s="3" t="s">
         <v>350</v>
-      </c>
-      <c r="H118" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="I118" s="3" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="119">
@@ -4827,25 +4851,25 @@
         <v>118.0</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E119" s="1">
         <v>2014.0</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="120">
@@ -4853,10 +4877,10 @@
         <v>119.0</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>11</v>
@@ -4868,10 +4892,10 @@
         <v>12</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="121">
@@ -4879,10 +4903,10 @@
         <v>120.0</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>11</v>
@@ -4894,10 +4918,10 @@
         <v>12</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="122">
@@ -4905,10 +4929,10 @@
         <v>121.0</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>11</v>
@@ -4920,13 +4944,13 @@
         <v>12</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="123">
@@ -4934,10 +4958,10 @@
         <v>122.0</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>11</v>
@@ -4949,13 +4973,13 @@
         <v>12</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="124">
@@ -4963,10 +4987,10 @@
         <v>123.0</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>11</v>
@@ -4981,10 +5005,10 @@
         <v>13</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="125">
@@ -4992,10 +5016,10 @@
         <v>124.0</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>11</v>
@@ -5007,10 +5031,10 @@
         <v>12</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="126">
@@ -5018,10 +5042,10 @@
         <v>125.0</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>11</v>
@@ -5033,13 +5057,13 @@
         <v>12</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="127">
@@ -5047,10 +5071,10 @@
         <v>126.0</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>11</v>
@@ -5062,13 +5086,13 @@
         <v>12</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="128">
@@ -5076,10 +5100,10 @@
         <v>127.0</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>11</v>
@@ -5091,13 +5115,13 @@
         <v>12</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="129">
@@ -5105,10 +5129,10 @@
         <v>128.0</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>11</v>
@@ -5120,13 +5144,13 @@
         <v>12</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="130">
@@ -5134,10 +5158,10 @@
         <v>129.0</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>11</v>
@@ -5149,33 +5173,120 @@
         <v>12</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1">
         <v>130.0</v>
       </c>
+      <c r="B131" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E131" s="1">
+        <v>2019.0</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1">
         <v>131.0</v>
       </c>
+      <c r="B132" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E132" s="1">
+        <v>2019.0</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1">
         <v>132.0</v>
       </c>
+      <c r="B133" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E133" s="1">
+        <v>2019.0</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1">
         <v>133.0</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E134" s="1">
+        <v>2019.0</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="135">
@@ -5314,7 +5425,11 @@
     <hyperlink r:id="rId127" ref="H128"/>
     <hyperlink r:id="rId128" ref="H129"/>
     <hyperlink r:id="rId129" ref="H130"/>
+    <hyperlink r:id="rId130" ref="H131"/>
+    <hyperlink r:id="rId131" ref="H132"/>
+    <hyperlink r:id="rId132" ref="H133"/>
+    <hyperlink r:id="rId133" ref="H134"/>
   </hyperlinks>
-  <drawing r:id="rId130"/>
+  <drawing r:id="rId134"/>
 </worksheet>
 </file>